--- a/Excel Files/Auto_iNJECTION MOULDING.xlsx
+++ b/Excel Files/Auto_iNJECTION MOULDING.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dev Gyan Priyadarshi\Desktop\TVSM OFFICE\Tool Cost Estimator Program\Excel Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dev Gyan Priyadarshi\Documents\GitHub\Cost\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18530" windowHeight="6950" tabRatio="777" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18530" windowHeight="6950" tabRatio="777" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="DASHBOARD" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="568">
   <si>
     <t xml:space="preserve">  TOOLING COST BREAK - UP ESTIMATE          </t>
   </si>
@@ -918,15 +918,6 @@
     <t>Price/Kg</t>
   </si>
   <si>
-    <t>RM cost</t>
-  </si>
-  <si>
-    <t>Extra cost</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Machining Process</t>
   </si>
   <si>
@@ -1795,6 +1786,12 @@
   </si>
   <si>
     <t>Over head and profit</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
   </si>
 </sst>
 </file>
@@ -1817,12 +1814,19 @@
     <numFmt numFmtId="174" formatCode="0.000"/>
     <numFmt numFmtId="175" formatCode="dd/mm/yy\,hh:mm:ss"/>
   </numFmts>
-  <fonts count="52">
+  <fonts count="53">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3488,93 +3492,93 @@
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="32" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="32" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="0"/>
+    <xf numFmtId="43" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="555">
+  <cellXfs count="556">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="5"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="5"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="14" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3586,11 +3590,11 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3616,17 +3620,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3644,7 +3648,7 @@
     <xf numFmtId="1" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3658,14 +3662,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3674,43 +3678,43 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -3720,7 +3724,7 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3736,7 +3740,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3744,16 +3748,16 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="27" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3768,14 +3772,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3804,19 +3808,19 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3828,32 +3832,32 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="4" xfId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="4" xfId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="4" xfId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" xfId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="4" xfId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" xfId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3872,11 +3876,11 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="1" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="1" xfId="7" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="40" fillId="29" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="41" fillId="29" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3886,11 +3890,11 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3905,10 +3909,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3926,28 +3930,28 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="16" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="22" fillId="16" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3963,124 +3967,124 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="38" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="39" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="16" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="28" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="42" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="46" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="46" fillId="0" borderId="21" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="40" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="16" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="28" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="42" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="24" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="45" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="45" fillId="0" borderId="21" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="40" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="36" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="32" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="24" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="16" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="25" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="28" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="36" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="32" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="16" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="25" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="28" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="33" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="45" fillId="7" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="46" fillId="7" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4092,144 +4096,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="25" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="51" fillId="35" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="25" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="52" fillId="35" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="25" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="25" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="46" fillId="0" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="47" fillId="0" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="28" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="28" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="56" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="56" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="53" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="45" fillId="0" borderId="10" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="53" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="46" fillId="0" borderId="10" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="46" fillId="0" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="47" fillId="0" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="46" fillId="7" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="46" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="46" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="47" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="45" fillId="7" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="34" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="46" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="46" fillId="0" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="46" fillId="7" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="45" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="62" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="46" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="45" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="46" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="8" borderId="4" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="52" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="34" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="45" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="45" fillId="0" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="45" fillId="7" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="45" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="8" borderId="4" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="52" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="52" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4239,7 +4243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4248,23 +4252,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="27" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="27" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="46" fillId="0" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="47" fillId="0" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="46" fillId="0" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="47" fillId="0" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="53" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="53" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -4273,23 +4277,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="25" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="25" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="55" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="55" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
@@ -4309,16 +4313,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4327,103 +4331,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="35" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="52" fillId="35" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="33" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="33" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="22" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="22" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="20" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="20" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="30" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="30" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="52" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="52" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="33" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="33" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="45" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="45" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="45" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="45" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="45" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="41" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="10" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="35" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="60" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="45" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="45" fillId="0" borderId="10" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="45" fillId="0" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="45" fillId="0" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="54" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="53" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="60" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="41" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="10" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="35" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="60" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="46" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="10" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="46" fillId="0" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="46" fillId="0" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="54" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="47" fillId="0" borderId="53" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="47" fillId="0" borderId="60" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="47" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="47" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="47" fillId="0" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="57" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="57" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="50" fillId="17" borderId="21" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="51" fillId="17" borderId="21" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4443,21 +4447,21 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="166" fontId="21" fillId="16" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="16" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="42" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="43" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="19" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="20" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="19" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="20" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="19" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="30" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="20" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="31" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="174" fontId="0" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4469,49 +4473,114 @@
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="8" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="25" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="74" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="8" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="33" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="57" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="68" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="46" fillId="17" borderId="74" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="75" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="46" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="51" fillId="17" borderId="68" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="71" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="46" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="17" borderId="81" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="47" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="53" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="57" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="51" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="24" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="50" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="47" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="39" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="54" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="47" fillId="17" borderId="74" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="71" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="25" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="25" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
@@ -4520,189 +4589,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="24" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="47" fillId="0" borderId="57" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="65" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="47" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="25" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="74" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="57" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="45" fillId="0" borderId="51" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="50" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="46" fillId="0" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="68" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="47" fillId="0" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="54" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="45" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="65" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="50" fillId="17" borderId="68" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="55" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="17" borderId="81" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="46" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="33" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="57" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="75" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="45" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="55" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="53" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="57" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4711,25 +4715,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4741,38 +4745,39 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="20% - Accent4" xfId="7" builtinId="42"/>
@@ -4787,6 +4792,28 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="159">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center"/>
@@ -6662,28 +6689,6 @@
         </patternFill>
       </fill>
       <alignment vertical="center"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
       <border>
         <left style="thin">
           <color auto="1"/>
@@ -12353,18 +12358,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table18" displayName="Table18" ref="A3:L19" totalsRowShown="0">
   <autoFilter ref="A3:L19"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Opn No" dataDxfId="110"/>
-    <tableColumn id="2" name="Operation Name" dataDxfId="109"/>
-    <tableColumn id="3" name="M/c Selected" dataDxfId="108"/>
-    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="107"/>
-    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="106"/>
-    <tableColumn id="6" name="Material to be removed in cm3" dataDxfId="105"/>
-    <tableColumn id="7" name="Standard MRR in cm3 per min" dataDxfId="104"/>
-    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="103"/>
-    <tableColumn id="9" name="Programming" dataDxfId="102"/>
-    <tableColumn id="10" name="Tool Change Time" dataDxfId="101"/>
-    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="100"/>
-    <tableColumn id="12" name="M/c Time in Hrs" dataDxfId="99">
+    <tableColumn id="1" name="Opn No" dataDxfId="111"/>
+    <tableColumn id="2" name="Operation Name" dataDxfId="110"/>
+    <tableColumn id="3" name="M/c Selected" dataDxfId="109"/>
+    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="108"/>
+    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="107"/>
+    <tableColumn id="6" name="Material to be removed in cm3" dataDxfId="106"/>
+    <tableColumn id="7" name="Standard MRR in cm3 per min" dataDxfId="105"/>
+    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="104"/>
+    <tableColumn id="9" name="Programming" dataDxfId="103"/>
+    <tableColumn id="10" name="Tool Change Time" dataDxfId="102"/>
+    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="101"/>
+    <tableColumn id="12" name="M/c Time in Hrs" dataDxfId="100">
       <calculatedColumnFormula>ROUNDUP((K4+H4+I4+J4)/60,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12376,18 +12381,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table19" displayName="Table19" ref="A41:L57" totalsRowShown="0">
   <autoFilter ref="A41:L57"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Opn No" dataDxfId="98"/>
-    <tableColumn id="2" name="Operation Name" dataDxfId="97"/>
-    <tableColumn id="3" name="M/c Selected" dataDxfId="96"/>
-    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="95"/>
-    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="94"/>
-    <tableColumn id="6" name="Material to be removed in cm3" dataDxfId="93"/>
-    <tableColumn id="7" name="Standard MRR in cm3 per min" dataDxfId="92"/>
-    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="91"/>
-    <tableColumn id="9" name="Programming" dataDxfId="90"/>
-    <tableColumn id="10" name="Tool Change Time" dataDxfId="89"/>
-    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="88"/>
-    <tableColumn id="12" name="M/c Time" dataDxfId="87"/>
+    <tableColumn id="1" name="Opn No" dataDxfId="99"/>
+    <tableColumn id="2" name="Operation Name" dataDxfId="98"/>
+    <tableColumn id="3" name="M/c Selected" dataDxfId="97"/>
+    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="96"/>
+    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="95"/>
+    <tableColumn id="6" name="Material to be removed in cm3" dataDxfId="94"/>
+    <tableColumn id="7" name="Standard MRR in cm3 per min" dataDxfId="93"/>
+    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="92"/>
+    <tableColumn id="9" name="Programming" dataDxfId="91"/>
+    <tableColumn id="10" name="Tool Change Time" dataDxfId="90"/>
+    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="89"/>
+    <tableColumn id="12" name="M/c Time" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12397,18 +12402,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table20" displayName="Table20" ref="A22:L38" totalsRowShown="0">
   <autoFilter ref="A22:L38"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Opn No" dataDxfId="86"/>
-    <tableColumn id="2" name="Operation Name" dataDxfId="85"/>
-    <tableColumn id="3" name="M/c Selected" dataDxfId="84"/>
-    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="83"/>
-    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="82"/>
-    <tableColumn id="6" name="Material to be removed in cm3" dataDxfId="81"/>
-    <tableColumn id="7" name="Standard MRR in cm3 per min" dataDxfId="80"/>
-    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="79"/>
-    <tableColumn id="9" name="Programming" dataDxfId="78"/>
-    <tableColumn id="10" name="Tool Change Time" dataDxfId="77"/>
-    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="76"/>
-    <tableColumn id="12" name="M/c Time in Hrs" dataDxfId="75">
+    <tableColumn id="1" name="Opn No" dataDxfId="87"/>
+    <tableColumn id="2" name="Operation Name" dataDxfId="86"/>
+    <tableColumn id="3" name="M/c Selected" dataDxfId="85"/>
+    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="84"/>
+    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="83"/>
+    <tableColumn id="6" name="Material to be removed in cm3" dataDxfId="82"/>
+    <tableColumn id="7" name="Standard MRR in cm3 per min" dataDxfId="81"/>
+    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="80"/>
+    <tableColumn id="9" name="Programming" dataDxfId="79"/>
+    <tableColumn id="10" name="Tool Change Time" dataDxfId="78"/>
+    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="77"/>
+    <tableColumn id="12" name="M/c Time in Hrs" dataDxfId="76">
       <calculatedColumnFormula>ROUNDUP((K23+H23+I23+J23)/60,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12420,24 +12425,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table21" displayName="Table21" ref="A60:L76" totalsRowShown="0">
   <autoFilter ref="A60:L76"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Opn No" dataDxfId="74"/>
-    <tableColumn id="2" name="Operation Name" dataDxfId="73"/>
-    <tableColumn id="3" name="M/c Selected" dataDxfId="72"/>
-    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="71"/>
-    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="70"/>
-    <tableColumn id="6" name="Material to be removed in cm3" dataDxfId="69">
+    <tableColumn id="1" name="Opn No" dataDxfId="75"/>
+    <tableColumn id="2" name="Operation Name" dataDxfId="74"/>
+    <tableColumn id="3" name="M/c Selected" dataDxfId="73"/>
+    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="72"/>
+    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="71"/>
+    <tableColumn id="6" name="Material to be removed in cm3" dataDxfId="70">
       <calculatedColumnFormula>D61-E61</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Standard MRR in cm3 per min" dataDxfId="68">
+    <tableColumn id="7" name="Standard MRR in cm3 per min" dataDxfId="69">
       <calculatedColumnFormula>VLOOKUP(C61,Table15[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="67">
+    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="68">
       <calculatedColumnFormula>F61/G61</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Programming" dataDxfId="66"/>
-    <tableColumn id="10" name="Tool Change Time" dataDxfId="65"/>
-    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="64"/>
-    <tableColumn id="12" name="M/c Time" dataDxfId="63">
+    <tableColumn id="9" name="Programming" dataDxfId="67"/>
+    <tableColumn id="10" name="Tool Change Time" dataDxfId="66"/>
+    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="65"/>
+    <tableColumn id="12" name="M/c Time" dataDxfId="64">
       <calculatedColumnFormula>ROUNDUP((K61+H61+I61+J61)/60,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12449,18 +12454,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table22" displayName="Table22" ref="A79:L95" totalsRowShown="0">
   <autoFilter ref="A79:L95"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Opn No" dataDxfId="62"/>
-    <tableColumn id="2" name="Operation Name" dataDxfId="61"/>
-    <tableColumn id="3" name="M/c Selected" dataDxfId="60"/>
-    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="59"/>
-    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="58"/>
-    <tableColumn id="6" name="Material to be removed in m3" dataDxfId="57"/>
-    <tableColumn id="7" name="Standard MRR in cm3 per min" dataDxfId="56"/>
-    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="55"/>
-    <tableColumn id="9" name="Programming" dataDxfId="54"/>
-    <tableColumn id="10" name="Tool Change Time" dataDxfId="53"/>
-    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="52"/>
-    <tableColumn id="12" name="M/c Time" dataDxfId="51"/>
+    <tableColumn id="1" name="Opn No" dataDxfId="63"/>
+    <tableColumn id="2" name="Operation Name" dataDxfId="62"/>
+    <tableColumn id="3" name="M/c Selected" dataDxfId="61"/>
+    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="60"/>
+    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="59"/>
+    <tableColumn id="6" name="Material to be removed in m3" dataDxfId="58"/>
+    <tableColumn id="7" name="Standard MRR in cm3 per min" dataDxfId="57"/>
+    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="56"/>
+    <tableColumn id="9" name="Programming" dataDxfId="55"/>
+    <tableColumn id="10" name="Tool Change Time" dataDxfId="54"/>
+    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="53"/>
+    <tableColumn id="12" name="M/c Time" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12470,18 +12475,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table23" displayName="Table23" ref="A98:L115" totalsRowShown="0">
   <autoFilter ref="A98:L115"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Opn No" dataDxfId="50"/>
-    <tableColumn id="2" name="Operation Name" dataDxfId="49"/>
-    <tableColumn id="3" name="M/c Selected" dataDxfId="48"/>
-    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="47"/>
-    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="46"/>
-    <tableColumn id="6" name="Material to be removed in cm3" dataDxfId="45"/>
-    <tableColumn id="7" name="Standard MRR in cm3 per min" dataDxfId="44"/>
-    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="43"/>
-    <tableColumn id="9" name="Programming" dataDxfId="42"/>
-    <tableColumn id="10" name="Tool Change Time" dataDxfId="41"/>
-    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="40"/>
-    <tableColumn id="12" name="M/c Time" dataDxfId="39"/>
+    <tableColumn id="1" name="Opn No" dataDxfId="51"/>
+    <tableColumn id="2" name="Operation Name" dataDxfId="50"/>
+    <tableColumn id="3" name="M/c Selected" dataDxfId="49"/>
+    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="48"/>
+    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="47"/>
+    <tableColumn id="6" name="Material to be removed in cm3" dataDxfId="46"/>
+    <tableColumn id="7" name="Standard MRR in cm3 per min" dataDxfId="45"/>
+    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="44"/>
+    <tableColumn id="9" name="Programming" dataDxfId="43"/>
+    <tableColumn id="10" name="Tool Change Time" dataDxfId="42"/>
+    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="41"/>
+    <tableColumn id="12" name="M/c Time" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12491,18 +12496,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table24" displayName="Table24" ref="A119:L136" totalsRowShown="0">
   <autoFilter ref="A119:L136"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Opn No" dataDxfId="38"/>
-    <tableColumn id="2" name="Operation Name" dataDxfId="37"/>
-    <tableColumn id="3" name="M/c Selected" dataDxfId="36"/>
-    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="35"/>
-    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="34"/>
-    <tableColumn id="6" name="Material to be removed in cm3" dataDxfId="33"/>
-    <tableColumn id="7" name="Standard MRR in icm per min" dataDxfId="32"/>
-    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="31"/>
-    <tableColumn id="9" name="Programming" dataDxfId="30"/>
-    <tableColumn id="10" name="Tool Change Time" dataDxfId="29"/>
-    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="28"/>
-    <tableColumn id="12" name="M/c Time" dataDxfId="27"/>
+    <tableColumn id="1" name="Opn No" dataDxfId="39"/>
+    <tableColumn id="2" name="Operation Name" dataDxfId="38"/>
+    <tableColumn id="3" name="M/c Selected" dataDxfId="37"/>
+    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="36"/>
+    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="35"/>
+    <tableColumn id="6" name="Material to be removed in cm3" dataDxfId="34"/>
+    <tableColumn id="7" name="Standard MRR in icm per min" dataDxfId="33"/>
+    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="32"/>
+    <tableColumn id="9" name="Programming" dataDxfId="31"/>
+    <tableColumn id="10" name="Tool Change Time" dataDxfId="30"/>
+    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="29"/>
+    <tableColumn id="12" name="M/c Time" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12512,18 +12517,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table25" displayName="Table25" ref="A139:L155" totalsRowShown="0">
   <autoFilter ref="A139:L155"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Opn No" dataDxfId="26"/>
-    <tableColumn id="2" name="Operation Name" dataDxfId="25"/>
-    <tableColumn id="3" name="M/c Selected" dataDxfId="24"/>
-    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="23"/>
-    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="22"/>
-    <tableColumn id="6" name="Material to be removed in cm3" dataDxfId="21"/>
-    <tableColumn id="7" name="Standard MRR in cm3 per min" dataDxfId="20"/>
-    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="19"/>
-    <tableColumn id="9" name="Programming" dataDxfId="18"/>
-    <tableColumn id="10" name="Tool Change Time" dataDxfId="17"/>
-    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="16"/>
-    <tableColumn id="12" name="M/c Time" dataDxfId="15"/>
+    <tableColumn id="1" name="Opn No" dataDxfId="27"/>
+    <tableColumn id="2" name="Operation Name" dataDxfId="26"/>
+    <tableColumn id="3" name="M/c Selected" dataDxfId="25"/>
+    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="24"/>
+    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="23"/>
+    <tableColumn id="6" name="Material to be removed in cm3" dataDxfId="22"/>
+    <tableColumn id="7" name="Standard MRR in cm3 per min" dataDxfId="21"/>
+    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="20"/>
+    <tableColumn id="9" name="Programming" dataDxfId="19"/>
+    <tableColumn id="10" name="Tool Change Time" dataDxfId="18"/>
+    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="17"/>
+    <tableColumn id="12" name="M/c Time" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12533,18 +12538,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table26" displayName="Table26" ref="A158:L174" totalsRowShown="0">
   <autoFilter ref="A158:L174"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Opn No" dataDxfId="14"/>
-    <tableColumn id="2" name="Operation Name" dataDxfId="13"/>
-    <tableColumn id="3" name="M/c Selected" dataDxfId="12"/>
-    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="11"/>
-    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="10"/>
-    <tableColumn id="6" name="Material to be removed in cm3" dataDxfId="9"/>
-    <tableColumn id="7" name="Standard MRR in cm3 per min" dataDxfId="8"/>
-    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="7"/>
-    <tableColumn id="9" name="Programming" dataDxfId="6"/>
-    <tableColumn id="10" name="Tool Change Time" dataDxfId="5"/>
-    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="4"/>
-    <tableColumn id="12" name="M/c Time" dataDxfId="3"/>
+    <tableColumn id="1" name="Opn No" dataDxfId="15"/>
+    <tableColumn id="2" name="Operation Name" dataDxfId="14"/>
+    <tableColumn id="3" name="M/c Selected" dataDxfId="13"/>
+    <tableColumn id="4" name="Initial Volume in cm3" dataDxfId="12"/>
+    <tableColumn id="5" name="Final Volume in cm3" dataDxfId="11"/>
+    <tableColumn id="6" name="Material to be removed in cm3" dataDxfId="10"/>
+    <tableColumn id="7" name="Standard MRR in cm3 per min" dataDxfId="9"/>
+    <tableColumn id="8" name="Cycle Time in Mins" dataDxfId="8"/>
+    <tableColumn id="9" name="Programming" dataDxfId="7"/>
+    <tableColumn id="10" name="Tool Change Time" dataDxfId="6"/>
+    <tableColumn id="11" name="Fixture Set-up time in mins" dataDxfId="5"/>
+    <tableColumn id="12" name="M/c Time" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12554,13 +12559,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1113" displayName="Table1113" ref="A26:C34" totalsRowShown="0">
   <autoFilter ref="A26:C34"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Part Material" dataDxfId="2">
+    <tableColumn id="1" name="Part Material" dataDxfId="3">
       <calculatedColumnFormula>Database!A20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Price/kg" dataDxfId="1">
+    <tableColumn id="2" name="Price/kg" dataDxfId="2">
       <calculatedColumnFormula>Database!B20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Tonnage Constant(/mm2)" dataDxfId="0">
+    <tableColumn id="3" name="Tonnage Constant(/mm2)" dataDxfId="1">
       <calculatedColumnFormula>Database!C20/100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12632,12 +12637,10 @@
     <tableColumn id="1" name="Various Tool Steel" dataDxfId="131"/>
     <tableColumn id="4" name="Density(g/cc3)" dataDxfId="130"/>
     <tableColumn id="2" name="Uses" dataDxfId="129"/>
-    <tableColumn id="3" name="Price/Kg" dataDxfId="128">
-      <calculatedColumnFormula>Table1[[#This Row],[Total]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" name="RM cost" dataDxfId="127"/>
-    <tableColumn id="6" name="Extra cost" dataDxfId="126"/>
-    <tableColumn id="7" name="Total" dataDxfId="125"/>
+    <tableColumn id="3" name="Price/Kg" dataDxfId="0"/>
+    <tableColumn id="5" name="Column1" dataDxfId="128"/>
+    <tableColumn id="6" name="Column2" dataDxfId="127"/>
+    <tableColumn id="7" name="Column3" dataDxfId="126"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12647,11 +12650,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table11" displayName="Table11" ref="A19:E27" totalsRowShown="0">
   <autoFilter ref="A19:E27"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Part Material" dataDxfId="124"/>
-    <tableColumn id="2" name="Price/kg" dataDxfId="123"/>
-    <tableColumn id="3" name="Tonnage Constant(/cm2)" dataDxfId="122"/>
-    <tableColumn id="4" name="Density" dataDxfId="121"/>
-    <tableColumn id="5" name="Young modulus" dataDxfId="120"/>
+    <tableColumn id="1" name="Part Material" dataDxfId="125"/>
+    <tableColumn id="2" name="Price/kg" dataDxfId="124"/>
+    <tableColumn id="3" name="Tonnage Constant(/cm2)" dataDxfId="123"/>
+    <tableColumn id="4" name="Density" dataDxfId="122"/>
+    <tableColumn id="5" name="Young modulus" dataDxfId="121"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12661,8 +12664,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table15" displayName="Table15" ref="I2:L17" totalsRowShown="0">
   <autoFilter ref="I2:L17"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Machining Process" dataDxfId="119"/>
-    <tableColumn id="2" name="MRR in cm3/min" dataDxfId="118"/>
+    <tableColumn id="1" name="Machining Process" dataDxfId="120"/>
+    <tableColumn id="2" name="MRR in cm3/min" dataDxfId="119"/>
     <tableColumn id="3" name="MHR"/>
     <tableColumn id="4" name="Column1"/>
   </tableColumns>
@@ -12674,9 +12677,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:C17" totalsRowShown="0">
   <autoFilter ref="A1:C17"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Part " dataDxfId="117"/>
-    <tableColumn id="2" name="Dimensions" dataDxfId="116"/>
-    <tableColumn id="3" name="unit" dataDxfId="115"/>
+    <tableColumn id="1" name="Part " dataDxfId="118"/>
+    <tableColumn id="2" name="Dimensions" dataDxfId="117"/>
+    <tableColumn id="3" name="unit" dataDxfId="116"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12686,8 +12689,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table16" displayName="Table16" ref="A18:B24" totalsRowShown="0">
   <autoFilter ref="A18:B24"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Output" dataDxfId="114"/>
-    <tableColumn id="2" name="Price" dataDxfId="113"/>
+    <tableColumn id="1" name="Output" dataDxfId="115"/>
+    <tableColumn id="2" name="Price" dataDxfId="114"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12698,7 +12701,7 @@
   <autoFilter ref="A1:B7"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Complexity index"/>
-    <tableColumn id="2" name="Complexity factor" dataDxfId="111"/>
+    <tableColumn id="2" name="Complexity factor" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12984,30 +12987,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="52" customHeight="1">
-      <c r="A1" s="428" t="s">
+      <c r="A1" s="490" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="429"/>
-      <c r="C1" s="429"/>
-      <c r="D1" s="429"/>
-      <c r="E1" s="429"/>
-      <c r="F1" s="429"/>
-      <c r="G1" s="429"/>
-      <c r="H1" s="429"/>
-      <c r="I1" s="429"/>
-      <c r="J1" s="430"/>
+      <c r="B1" s="449"/>
+      <c r="C1" s="449"/>
+      <c r="D1" s="449"/>
+      <c r="E1" s="449"/>
+      <c r="F1" s="449"/>
+      <c r="G1" s="449"/>
+      <c r="H1" s="449"/>
+      <c r="I1" s="449"/>
+      <c r="J1" s="471"/>
     </row>
     <row r="2" spans="1:10" ht="52.5" customHeight="1" thickBot="1">
-      <c r="A2" s="431"/>
-      <c r="B2" s="432"/>
-      <c r="C2" s="432"/>
-      <c r="D2" s="432"/>
-      <c r="E2" s="432"/>
-      <c r="F2" s="432"/>
-      <c r="G2" s="432"/>
-      <c r="H2" s="432"/>
-      <c r="I2" s="432"/>
-      <c r="J2" s="433"/>
+      <c r="A2" s="450"/>
+      <c r="B2" s="426"/>
+      <c r="C2" s="426"/>
+      <c r="D2" s="426"/>
+      <c r="E2" s="426"/>
+      <c r="F2" s="426"/>
+      <c r="G2" s="426"/>
+      <c r="H2" s="426"/>
+      <c r="I2" s="426"/>
+      <c r="J2" s="427"/>
     </row>
     <row r="3" spans="1:10" ht="35.5" customHeight="1" thickBot="1">
       <c r="A3" s="245" t="s">
@@ -13022,7 +13025,7 @@
       </c>
       <c r="D3" s="366">
         <f ca="1">IF($D$4&lt;&gt;0,NOW(),NOW())</f>
-        <v>45118.493419328704</v>
+        <v>45120.408507638887</v>
       </c>
       <c r="E3" s="276"/>
       <c r="F3" s="277"/>
@@ -13031,7 +13034,7 @@
       </c>
       <c r="H3" s="278">
         <f ca="1">TODAY()</f>
-        <v>45118</v>
+        <v>45120</v>
       </c>
       <c r="I3" s="299"/>
       <c r="J3" s="273" t="s">
@@ -13055,13 +13058,13 @@
       <c r="E4" s="272" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="436" t="s">
+      <c r="F4" s="428" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="435"/>
-      <c r="H4" s="423"/>
+      <c r="G4" s="429"/>
+      <c r="H4" s="430"/>
       <c r="I4" s="300"/>
-      <c r="J4" s="437"/>
+      <c r="J4" s="491"/>
     </row>
     <row r="5" spans="1:10" ht="35" customHeight="1">
       <c r="A5" s="181"/>
@@ -13077,11 +13080,11 @@
       <c r="E5" s="272" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="436"/>
-      <c r="G5" s="435"/>
-      <c r="H5" s="423"/>
+      <c r="F5" s="428"/>
+      <c r="G5" s="429"/>
+      <c r="H5" s="430"/>
       <c r="I5" s="300"/>
-      <c r="J5" s="438"/>
+      <c r="J5" s="492"/>
     </row>
     <row r="6" spans="1:10" ht="35" customHeight="1">
       <c r="A6" s="280" t="s">
@@ -13110,7 +13113,7 @@
         <v>17</v>
       </c>
       <c r="I6" s="301"/>
-      <c r="J6" s="438"/>
+      <c r="J6" s="492"/>
     </row>
     <row r="7" spans="1:10" ht="35" customHeight="1">
       <c r="A7" s="280" t="s">
@@ -13142,7 +13145,7 @@
         <v>120000</v>
       </c>
       <c r="I7" s="302"/>
-      <c r="J7" s="438"/>
+      <c r="J7" s="492"/>
     </row>
     <row r="8" spans="1:10" ht="35.5" customHeight="1" thickBot="1">
       <c r="A8" s="328" t="s">
@@ -13172,28 +13175,28 @@
       </c>
       <c r="H8" s="367"/>
       <c r="I8" s="368"/>
-      <c r="J8" s="433"/>
+      <c r="J8" s="427"/>
     </row>
     <row r="9" spans="1:10" ht="35.5" customHeight="1" thickBot="1">
-      <c r="A9" s="494" t="s">
+      <c r="A9" s="496" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="432"/>
-      <c r="C9" s="463">
+      <c r="B9" s="426"/>
+      <c r="C9" s="493">
         <f>'Mould Costing'!K60</f>
         <v>258847.83579495471</v>
       </c>
-      <c r="D9" s="432"/>
+      <c r="D9" s="426"/>
       <c r="E9" s="268" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="269">
         <v>0</v>
       </c>
-      <c r="G9" s="495" t="s">
+      <c r="G9" s="497" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="433"/>
+      <c r="H9" s="427"/>
       <c r="I9" s="288"/>
       <c r="J9" s="311" t="s">
         <v>27</v>
@@ -13228,19 +13231,19 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="35.5" customHeight="1" thickBot="1">
-      <c r="A12" s="451" t="s">
+      <c r="A12" s="459" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="440" t="s">
+      <c r="B12" s="472" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="458" t="s">
+      <c r="C12" s="461" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="451" t="s">
+      <c r="D12" s="459" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="444"/>
+      <c r="E12" s="475"/>
       <c r="F12" s="346" t="s">
         <v>34</v>
       </c>
@@ -13254,11 +13257,11 @@
       <c r="J12" s="234"/>
     </row>
     <row r="13" spans="1:10" ht="35.5" customHeight="1" thickBot="1">
-      <c r="A13" s="457"/>
-      <c r="B13" s="441"/>
-      <c r="C13" s="459"/>
-      <c r="D13" s="452"/>
-      <c r="E13" s="450"/>
+      <c r="A13" s="460"/>
+      <c r="B13" s="473"/>
+      <c r="C13" s="462"/>
+      <c r="D13" s="481"/>
+      <c r="E13" s="442"/>
       <c r="F13" s="283" t="s">
         <v>37</v>
       </c>
@@ -13282,8 +13285,8 @@
         <f>'Mould Costing'!B16</f>
         <v>C-45</v>
       </c>
-      <c r="D14" s="490"/>
-      <c r="E14" s="450"/>
+      <c r="D14" s="445"/>
+      <c r="E14" s="442"/>
       <c r="F14" s="261">
         <f>'Mould Costing'!K16</f>
         <v>371.6549787285893</v>
@@ -13315,8 +13318,8 @@
         <f>Table4[[#This Row],[Material]]</f>
         <v>P20</v>
       </c>
-      <c r="D15" s="442"/>
-      <c r="E15" s="423"/>
+      <c r="D15" s="433"/>
+      <c r="E15" s="430"/>
       <c r="F15" s="235">
         <f>Table4[[#This Row],[Total weight]]</f>
         <v>270.7023035483906</v>
@@ -13348,8 +13351,8 @@
         <f>'Mould Costing'!B14</f>
         <v>P20</v>
       </c>
-      <c r="D16" s="442"/>
-      <c r="E16" s="423"/>
+      <c r="D16" s="433"/>
+      <c r="E16" s="430"/>
       <c r="F16" s="235">
         <f>'Mould Costing'!K14</f>
         <v>263.52001138616976</v>
@@ -13381,8 +13384,8 @@
         <f>'Mould Costing'!B17</f>
         <v>Graphite</v>
       </c>
-      <c r="D17" s="442"/>
-      <c r="E17" s="423"/>
+      <c r="D17" s="433"/>
+      <c r="E17" s="430"/>
       <c r="F17" s="235">
         <f>'Mould Costing'!K17+'Mould Costing'!K18</f>
         <v>5.5453200000000002</v>
@@ -13414,8 +13417,8 @@
         <f>'Mould Costing'!B11</f>
         <v>C-45</v>
       </c>
-      <c r="D18" s="442"/>
-      <c r="E18" s="423"/>
+      <c r="D18" s="433"/>
+      <c r="E18" s="430"/>
       <c r="F18" s="235">
         <f>'Mould Costing'!K11</f>
         <v>208.05601790577271</v>
@@ -13447,8 +13450,8 @@
         <f>'Mould Costing'!B12</f>
         <v>C-45</v>
       </c>
-      <c r="D19" s="442"/>
-      <c r="E19" s="423"/>
+      <c r="D19" s="433"/>
+      <c r="E19" s="430"/>
       <c r="F19" s="235">
         <f>'Mould Costing'!K12+'Mould Costing'!K13</f>
         <v>129.25731491997368</v>
@@ -13477,8 +13480,8 @@
       <c r="C20" s="336" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="422"/>
-      <c r="E20" s="423"/>
+      <c r="D20" s="487"/>
+      <c r="E20" s="430"/>
       <c r="F20" s="336"/>
       <c r="G20" s="336"/>
       <c r="H20" s="374">
@@ -13501,8 +13504,8 @@
       <c r="C21" s="336" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="442"/>
-      <c r="E21" s="423"/>
+      <c r="D21" s="433"/>
+      <c r="E21" s="430"/>
       <c r="F21" s="336"/>
       <c r="G21" s="336"/>
       <c r="H21" s="374">
@@ -13523,8 +13526,8 @@
         <v>47</v>
       </c>
       <c r="C22" s="336"/>
-      <c r="D22" s="442"/>
-      <c r="E22" s="423"/>
+      <c r="D22" s="433"/>
+      <c r="E22" s="430"/>
       <c r="F22" s="336"/>
       <c r="G22" s="336"/>
       <c r="H22" s="374">
@@ -13548,8 +13551,8 @@
         <f>'Mould Costing'!B9</f>
         <v>C-45</v>
       </c>
-      <c r="D23" s="442"/>
-      <c r="E23" s="423"/>
+      <c r="D23" s="433"/>
+      <c r="E23" s="430"/>
       <c r="F23" s="235">
         <f>'Mould Costing'!K9+'Mould Costing'!K10</f>
         <v>143.17706732065622</v>
@@ -13576,8 +13579,8 @@
         <v>55</v>
       </c>
       <c r="C24" s="336"/>
-      <c r="D24" s="442"/>
-      <c r="E24" s="423"/>
+      <c r="D24" s="433"/>
+      <c r="E24" s="430"/>
       <c r="F24" s="336"/>
       <c r="G24" s="336"/>
       <c r="H24" s="374">
@@ -13598,8 +13601,8 @@
         <v>56</v>
       </c>
       <c r="C25" s="349"/>
-      <c r="D25" s="442"/>
-      <c r="E25" s="423"/>
+      <c r="D25" s="433"/>
+      <c r="E25" s="430"/>
       <c r="F25" s="349"/>
       <c r="G25" s="349"/>
       <c r="H25" s="374">
@@ -13616,8 +13619,8 @@
       <c r="A26" s="233"/>
       <c r="B26" s="238"/>
       <c r="C26" s="349"/>
-      <c r="D26" s="442"/>
-      <c r="E26" s="423"/>
+      <c r="D26" s="433"/>
+      <c r="E26" s="430"/>
       <c r="F26" s="349"/>
       <c r="G26" s="349"/>
       <c r="H26" s="374"/>
@@ -13628,8 +13631,8 @@
       <c r="A27" s="248"/>
       <c r="B27" s="238"/>
       <c r="C27" s="349"/>
-      <c r="D27" s="460"/>
-      <c r="E27" s="461"/>
+      <c r="D27" s="463"/>
+      <c r="E27" s="453"/>
       <c r="F27" s="240"/>
       <c r="G27" s="349"/>
       <c r="H27" s="377"/>
@@ -13637,12 +13640,12 @@
       <c r="J27" s="226"/>
     </row>
     <row r="28" spans="1:10" ht="35.5" customHeight="1" thickBot="1">
-      <c r="A28" s="470"/>
-      <c r="B28" s="471"/>
-      <c r="C28" s="471"/>
-      <c r="D28" s="471"/>
-      <c r="E28" s="471"/>
-      <c r="F28" s="472"/>
+      <c r="A28" s="485"/>
+      <c r="B28" s="455"/>
+      <c r="C28" s="455"/>
+      <c r="D28" s="455"/>
+      <c r="E28" s="455"/>
+      <c r="F28" s="486"/>
       <c r="G28" s="241" t="s">
         <v>57</v>
       </c>
@@ -13685,32 +13688,32 @@
       <c r="J30" s="226"/>
     </row>
     <row r="31" spans="1:10" ht="35" customHeight="1">
-      <c r="A31" s="451" t="s">
+      <c r="A31" s="459" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="443" t="s">
+      <c r="B31" s="474" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="443"/>
-      <c r="D31" s="429"/>
-      <c r="E31" s="444"/>
-      <c r="F31" s="425" t="s">
+      <c r="C31" s="474"/>
+      <c r="D31" s="449"/>
+      <c r="E31" s="475"/>
+      <c r="F31" s="489" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="491" t="s">
+      <c r="G31" s="494" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="492"/>
+      <c r="H31" s="495"/>
       <c r="I31" s="308"/>
       <c r="J31" s="226"/>
     </row>
     <row r="32" spans="1:10" ht="35" customHeight="1">
-      <c r="A32" s="467"/>
-      <c r="B32" s="426"/>
-      <c r="C32" s="445"/>
-      <c r="D32" s="446"/>
-      <c r="E32" s="447"/>
-      <c r="F32" s="426"/>
+      <c r="A32" s="468"/>
+      <c r="B32" s="483"/>
+      <c r="C32" s="476"/>
+      <c r="D32" s="477"/>
+      <c r="E32" s="478"/>
+      <c r="F32" s="483"/>
       <c r="G32" s="246" t="s">
         <v>62</v>
       </c>
@@ -13721,12 +13724,12 @@
       <c r="J32" s="226"/>
     </row>
     <row r="33" spans="1:10" ht="35.5" customHeight="1" thickBot="1">
-      <c r="A33" s="457"/>
-      <c r="B33" s="427"/>
-      <c r="C33" s="448"/>
-      <c r="D33" s="449"/>
-      <c r="E33" s="450"/>
-      <c r="F33" s="427"/>
+      <c r="A33" s="460"/>
+      <c r="B33" s="484"/>
+      <c r="C33" s="479"/>
+      <c r="D33" s="480"/>
+      <c r="E33" s="442"/>
+      <c r="F33" s="484"/>
       <c r="G33" s="247" t="s">
         <v>64</v>
       </c>
@@ -13744,8 +13747,8 @@
         <v>66</v>
       </c>
       <c r="C34" s="434"/>
-      <c r="D34" s="435"/>
-      <c r="E34" s="423"/>
+      <c r="D34" s="429"/>
+      <c r="E34" s="430"/>
       <c r="F34" s="298">
         <f>'Mould Costing'!$B$81</f>
         <v>400</v>
@@ -13772,8 +13775,8 @@
         <v>67</v>
       </c>
       <c r="C35" s="434"/>
-      <c r="D35" s="435"/>
-      <c r="E35" s="423"/>
+      <c r="D35" s="429"/>
+      <c r="E35" s="430"/>
       <c r="F35" s="298">
         <f>'Mould Costing'!$C$81</f>
         <v>400</v>
@@ -13800,8 +13803,8 @@
         <v>68</v>
       </c>
       <c r="C36" s="434"/>
-      <c r="D36" s="435"/>
-      <c r="E36" s="423"/>
+      <c r="D36" s="429"/>
+      <c r="E36" s="430"/>
       <c r="F36" s="298">
         <f>'Mould Costing'!$D$81</f>
         <v>400</v>
@@ -13828,8 +13831,8 @@
         <v>69</v>
       </c>
       <c r="C37" s="434"/>
-      <c r="D37" s="435"/>
-      <c r="E37" s="423"/>
+      <c r="D37" s="429"/>
+      <c r="E37" s="430"/>
       <c r="F37" s="298">
         <f>'Mould Costing'!$E$81</f>
         <v>500</v>
@@ -13856,8 +13859,8 @@
         <v>70</v>
       </c>
       <c r="C38" s="434"/>
-      <c r="D38" s="435"/>
-      <c r="E38" s="423"/>
+      <c r="D38" s="429"/>
+      <c r="E38" s="430"/>
       <c r="F38" s="298">
         <f>'Mould Costing'!$F$81</f>
         <v>500</v>
@@ -13884,8 +13887,8 @@
         <v>71</v>
       </c>
       <c r="C39" s="434"/>
-      <c r="D39" s="435"/>
-      <c r="E39" s="423"/>
+      <c r="D39" s="429"/>
+      <c r="E39" s="430"/>
       <c r="F39" s="298">
         <f>'Mould Costing'!$G$81</f>
         <v>500</v>
@@ -13912,8 +13915,8 @@
         <v>72</v>
       </c>
       <c r="C40" s="434"/>
-      <c r="D40" s="435"/>
-      <c r="E40" s="423"/>
+      <c r="D40" s="429"/>
+      <c r="E40" s="430"/>
       <c r="F40" s="298">
         <f>'Mould Costing'!$H$81</f>
         <v>500</v>
@@ -13940,8 +13943,8 @@
         <v>73</v>
       </c>
       <c r="C41" s="434"/>
-      <c r="D41" s="435"/>
-      <c r="E41" s="423"/>
+      <c r="D41" s="429"/>
+      <c r="E41" s="430"/>
       <c r="F41" s="298">
         <f>'Mould Costing'!$I$81</f>
         <v>500</v>
@@ -13968,8 +13971,8 @@
         <v>74</v>
       </c>
       <c r="C42" s="434"/>
-      <c r="D42" s="435"/>
-      <c r="E42" s="423"/>
+      <c r="D42" s="429"/>
+      <c r="E42" s="430"/>
       <c r="F42" s="298">
         <f>'Mould Costing'!$J$81</f>
         <v>500</v>
@@ -13996,8 +13999,8 @@
         <v>75</v>
       </c>
       <c r="C43" s="434"/>
-      <c r="D43" s="435"/>
-      <c r="E43" s="423"/>
+      <c r="D43" s="429"/>
+      <c r="E43" s="430"/>
       <c r="F43" s="298">
         <f>'Mould Costing'!K$81</f>
         <v>800</v>
@@ -14024,8 +14027,8 @@
         <v>76</v>
       </c>
       <c r="C44" s="434"/>
-      <c r="D44" s="435"/>
-      <c r="E44" s="423"/>
+      <c r="D44" s="429"/>
+      <c r="E44" s="430"/>
       <c r="F44" s="298">
         <f>'Mould Costing'!$L$81</f>
         <v>800</v>
@@ -14052,8 +14055,8 @@
         <v>77</v>
       </c>
       <c r="C45" s="434"/>
-      <c r="D45" s="435"/>
-      <c r="E45" s="423"/>
+      <c r="D45" s="429"/>
+      <c r="E45" s="430"/>
       <c r="F45" s="298">
         <f>'Mould Costing'!$M$81</f>
         <v>500</v>
@@ -14080,8 +14083,8 @@
         <v>78</v>
       </c>
       <c r="C46" s="434"/>
-      <c r="D46" s="435"/>
-      <c r="E46" s="423"/>
+      <c r="D46" s="429"/>
+      <c r="E46" s="430"/>
       <c r="F46" s="298">
         <f>'Mould Costing'!$N$81</f>
         <v>1200</v>
@@ -14108,8 +14111,8 @@
         <v>79</v>
       </c>
       <c r="C47" s="434"/>
-      <c r="D47" s="435"/>
-      <c r="E47" s="423"/>
+      <c r="D47" s="429"/>
+      <c r="E47" s="430"/>
       <c r="F47" s="298">
         <f>'Mould Costing'!$O$81</f>
         <v>1200</v>
@@ -14136,8 +14139,8 @@
         <v>80</v>
       </c>
       <c r="C48" s="434"/>
-      <c r="D48" s="435"/>
-      <c r="E48" s="423"/>
+      <c r="D48" s="429"/>
+      <c r="E48" s="430"/>
       <c r="F48" s="298">
         <f>'Mould Costing'!$P$81</f>
         <v>1200</v>
@@ -14164,8 +14167,8 @@
         <v>81</v>
       </c>
       <c r="C49" s="434"/>
-      <c r="D49" s="435"/>
-      <c r="E49" s="423"/>
+      <c r="D49" s="429"/>
+      <c r="E49" s="430"/>
       <c r="F49" s="298">
         <f>'Mould Costing'!$Q$81</f>
         <v>43.75</v>
@@ -14185,12 +14188,12 @@
       <c r="J49" s="351"/>
     </row>
     <row r="50" spans="1:10" ht="35.5" customHeight="1" thickBot="1">
-      <c r="A50" s="489" t="s">
+      <c r="A50" s="443" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="432"/>
-      <c r="C50" s="432"/>
-      <c r="D50" s="432"/>
+      <c r="B50" s="426"/>
+      <c r="C50" s="426"/>
+      <c r="D50" s="426"/>
       <c r="E50" s="320"/>
       <c r="F50" s="389"/>
       <c r="G50" s="389">
@@ -14274,37 +14277,37 @@
       <c r="J55" s="226"/>
     </row>
     <row r="56" spans="1:10" ht="35.5" customHeight="1" thickBot="1">
-      <c r="A56" s="464"/>
-      <c r="B56" s="465"/>
-      <c r="C56" s="468" t="s">
+      <c r="A56" s="465"/>
+      <c r="B56" s="466"/>
+      <c r="C56" s="469" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="454"/>
-      <c r="E56" s="496" t="s">
+      <c r="D56" s="432"/>
+      <c r="E56" s="454" t="s">
         <v>85</v>
       </c>
-      <c r="F56" s="471"/>
-      <c r="G56" s="497" t="s">
+      <c r="F56" s="455"/>
+      <c r="G56" s="456" t="s">
         <v>86</v>
       </c>
-      <c r="H56" s="454"/>
+      <c r="H56" s="432"/>
       <c r="I56" s="243"/>
       <c r="J56" s="226"/>
     </row>
     <row r="57" spans="1:10" ht="35" customHeight="1">
-      <c r="A57" s="474" t="s">
+      <c r="A57" s="444" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="450"/>
-      <c r="C57" s="474"/>
-      <c r="D57" s="450"/>
-      <c r="E57" s="488"/>
-      <c r="F57" s="450"/>
-      <c r="G57" s="462">
+      <c r="B57" s="442"/>
+      <c r="C57" s="444"/>
+      <c r="D57" s="442"/>
+      <c r="E57" s="441"/>
+      <c r="F57" s="442"/>
+      <c r="G57" s="464">
         <f>'Mould Costing'!L96</f>
         <v>5000</v>
       </c>
-      <c r="H57" s="450"/>
+      <c r="H57" s="442"/>
       <c r="I57" s="393"/>
       <c r="J57" s="226"/>
     </row>
@@ -14312,16 +14315,16 @@
       <c r="A58" s="434" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="423"/>
+      <c r="B58" s="430"/>
       <c r="C58" s="434"/>
-      <c r="D58" s="423"/>
-      <c r="E58" s="469"/>
-      <c r="F58" s="423"/>
-      <c r="G58" s="476">
+      <c r="D58" s="430"/>
+      <c r="E58" s="447"/>
+      <c r="F58" s="430"/>
+      <c r="G58" s="451">
         <f>'Mould Costing'!L99</f>
         <v>0</v>
       </c>
-      <c r="H58" s="423"/>
+      <c r="H58" s="430"/>
       <c r="I58" s="393"/>
       <c r="J58" s="226"/>
     </row>
@@ -14329,16 +14332,16 @@
       <c r="A59" s="434" t="s">
         <v>88</v>
       </c>
-      <c r="B59" s="423"/>
+      <c r="B59" s="430"/>
       <c r="C59" s="434"/>
-      <c r="D59" s="423"/>
-      <c r="E59" s="469"/>
-      <c r="F59" s="423"/>
-      <c r="G59" s="424">
+      <c r="D59" s="430"/>
+      <c r="E59" s="447"/>
+      <c r="F59" s="430"/>
+      <c r="G59" s="488">
         <f>'Mould Costing'!L95</f>
         <v>180468.96057668407</v>
       </c>
-      <c r="H59" s="423"/>
+      <c r="H59" s="430"/>
       <c r="I59" s="394"/>
       <c r="J59" s="226"/>
     </row>
@@ -14347,10 +14350,10 @@
       <c r="B60" s="239"/>
       <c r="C60" s="239"/>
       <c r="D60" s="349"/>
-      <c r="E60" s="466"/>
-      <c r="F60" s="461"/>
-      <c r="G60" s="493"/>
-      <c r="H60" s="461"/>
+      <c r="E60" s="467"/>
+      <c r="F60" s="453"/>
+      <c r="G60" s="452"/>
+      <c r="H60" s="453"/>
       <c r="I60" s="303"/>
       <c r="J60" s="237"/>
     </row>
@@ -14359,15 +14362,15 @@
       <c r="B61" s="297"/>
       <c r="C61" s="297"/>
       <c r="D61" s="335"/>
-      <c r="E61" s="481" t="s">
+      <c r="E61" s="431" t="s">
         <v>57</v>
       </c>
-      <c r="F61" s="454"/>
-      <c r="G61" s="453">
+      <c r="F61" s="432"/>
+      <c r="G61" s="482">
         <f>+G57+G58+G59</f>
         <v>185468.96057668407</v>
       </c>
-      <c r="H61" s="454"/>
+      <c r="H61" s="432"/>
       <c r="I61" s="395"/>
       <c r="J61" s="242" t="s">
         <v>89</v>
@@ -14416,33 +14419,33 @@
       <c r="J64" s="226"/>
     </row>
     <row r="65" spans="1:10" ht="40.5" customHeight="1">
-      <c r="A65" s="475" t="s">
+      <c r="A65" s="448" t="s">
         <v>92</v>
       </c>
-      <c r="B65" s="429"/>
-      <c r="C65" s="429"/>
-      <c r="D65" s="439"/>
-      <c r="E65" s="429"/>
-      <c r="F65" s="429"/>
-      <c r="G65" s="430"/>
-      <c r="H65" s="473">
+      <c r="B65" s="449"/>
+      <c r="C65" s="449"/>
+      <c r="D65" s="470"/>
+      <c r="E65" s="449"/>
+      <c r="F65" s="449"/>
+      <c r="G65" s="471"/>
+      <c r="H65" s="446">
         <f>C9+H28+H52+G61+H63+F9</f>
         <v>1397362.1677430593</v>
       </c>
       <c r="I65" s="397"/>
-      <c r="J65" s="455"/>
+      <c r="J65" s="457"/>
     </row>
     <row r="66" spans="1:10" ht="41" customHeight="1" thickBot="1">
-      <c r="A66" s="431"/>
-      <c r="B66" s="432"/>
-      <c r="C66" s="432"/>
-      <c r="D66" s="431"/>
-      <c r="E66" s="432"/>
-      <c r="F66" s="432"/>
-      <c r="G66" s="433"/>
-      <c r="H66" s="433"/>
+      <c r="A66" s="450"/>
+      <c r="B66" s="426"/>
+      <c r="C66" s="426"/>
+      <c r="D66" s="450"/>
+      <c r="E66" s="426"/>
+      <c r="F66" s="426"/>
+      <c r="G66" s="427"/>
+      <c r="H66" s="427"/>
       <c r="I66" s="397"/>
-      <c r="J66" s="456"/>
+      <c r="J66" s="458"/>
     </row>
     <row r="67" spans="1:10" ht="35" customHeight="1">
       <c r="A67" s="243"/>
@@ -14457,32 +14460,32 @@
       <c r="J67" s="226"/>
     </row>
     <row r="68" spans="1:10" ht="35" customHeight="1">
-      <c r="A68" s="482" t="s">
+      <c r="A68" s="435" t="s">
         <v>93</v>
       </c>
-      <c r="B68" s="483"/>
-      <c r="C68" s="483"/>
-      <c r="D68" s="484"/>
+      <c r="B68" s="436"/>
+      <c r="C68" s="436"/>
+      <c r="D68" s="437"/>
       <c r="E68" s="291"/>
-      <c r="F68" s="477" t="s">
+      <c r="F68" s="422" t="s">
         <v>94</v>
       </c>
-      <c r="G68" s="478"/>
-      <c r="H68" s="478"/>
-      <c r="I68" s="478"/>
-      <c r="J68" s="479"/>
+      <c r="G68" s="423"/>
+      <c r="H68" s="423"/>
+      <c r="I68" s="423"/>
+      <c r="J68" s="424"/>
     </row>
     <row r="69" spans="1:10" ht="35.5" customHeight="1" thickBot="1">
-      <c r="A69" s="485"/>
-      <c r="B69" s="486"/>
-      <c r="C69" s="486"/>
-      <c r="D69" s="487"/>
+      <c r="A69" s="438"/>
+      <c r="B69" s="439"/>
+      <c r="C69" s="439"/>
+      <c r="D69" s="440"/>
       <c r="E69" s="253"/>
-      <c r="F69" s="480"/>
-      <c r="G69" s="432"/>
-      <c r="H69" s="432"/>
-      <c r="I69" s="432"/>
-      <c r="J69" s="433"/>
+      <c r="F69" s="425"/>
+      <c r="G69" s="426"/>
+      <c r="H69" s="426"/>
+      <c r="I69" s="426"/>
+      <c r="J69" s="427"/>
     </row>
     <row r="78" spans="1:10">
       <c r="H78">
@@ -14492,6 +14495,64 @@
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C31:E33"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="A65:C66"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="D65:G66"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
     <mergeCell ref="F68:J69"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="E61:F61"/>
@@ -14508,64 +14569,6 @@
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="A65:C66"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="D65:G66"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C31:E33"/>
-    <mergeCell ref="D12:E13"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J4:J8"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C35:E35"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="20" orientation="portrait"/>
@@ -14592,10 +14595,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -14648,46 +14651,46 @@
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1"/>
     <row r="9" spans="1:10" ht="26" customHeight="1">
-      <c r="A9" s="533" t="s">
-        <v>390</v>
-      </c>
-      <c r="B9" s="534"/>
-      <c r="C9" s="534"/>
-      <c r="D9" s="534"/>
-      <c r="E9" s="534"/>
-      <c r="F9" s="534"/>
-      <c r="G9" s="534"/>
-      <c r="H9" s="534"/>
-      <c r="I9" s="534"/>
-      <c r="J9" s="535"/>
+      <c r="A9" s="536" t="s">
+        <v>387</v>
+      </c>
+      <c r="B9" s="537"/>
+      <c r="C9" s="537"/>
+      <c r="D9" s="537"/>
+      <c r="E9" s="537"/>
+      <c r="F9" s="537"/>
+      <c r="G9" s="537"/>
+      <c r="H9" s="537"/>
+      <c r="I9" s="537"/>
+      <c r="J9" s="538"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="531" t="s">
-        <v>391</v>
-      </c>
-      <c r="B10" s="435"/>
-      <c r="C10" s="435"/>
-      <c r="D10" s="435"/>
-      <c r="E10" s="435"/>
-      <c r="F10" s="435"/>
-      <c r="G10" s="435"/>
-      <c r="H10" s="435"/>
-      <c r="I10" s="435"/>
-      <c r="J10" s="532"/>
+      <c r="A10" s="534" t="s">
+        <v>388</v>
+      </c>
+      <c r="B10" s="429"/>
+      <c r="C10" s="429"/>
+      <c r="D10" s="429"/>
+      <c r="E10" s="429"/>
+      <c r="F10" s="429"/>
+      <c r="G10" s="429"/>
+      <c r="H10" s="429"/>
+      <c r="I10" s="429"/>
+      <c r="J10" s="535"/>
     </row>
     <row r="11" spans="1:10" ht="39" customHeight="1">
-      <c r="A11" s="529" t="s">
-        <v>392</v>
-      </c>
-      <c r="B11" s="449"/>
-      <c r="C11" s="449"/>
-      <c r="D11" s="449"/>
-      <c r="E11" s="449"/>
-      <c r="F11" s="449"/>
-      <c r="G11" s="449"/>
-      <c r="H11" s="449"/>
-      <c r="I11" s="449"/>
-      <c r="J11" s="530"/>
+      <c r="A11" s="532" t="s">
+        <v>389</v>
+      </c>
+      <c r="B11" s="480"/>
+      <c r="C11" s="480"/>
+      <c r="D11" s="480"/>
+      <c r="E11" s="480"/>
+      <c r="F11" s="480"/>
+      <c r="G11" s="480"/>
+      <c r="H11" s="480"/>
+      <c r="I11" s="480"/>
+      <c r="J11" s="533"/>
     </row>
     <row r="12" spans="1:10" ht="11" customHeight="1">
       <c r="A12" s="215"/>
@@ -14702,32 +14705,32 @@
       <c r="J12" s="216"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="531" t="s">
-        <v>393</v>
-      </c>
-      <c r="B13" s="435"/>
-      <c r="C13" s="435"/>
-      <c r="D13" s="435"/>
-      <c r="E13" s="435"/>
-      <c r="F13" s="435"/>
-      <c r="G13" s="435"/>
-      <c r="H13" s="435"/>
-      <c r="I13" s="435"/>
-      <c r="J13" s="532"/>
+      <c r="A13" s="534" t="s">
+        <v>390</v>
+      </c>
+      <c r="B13" s="429"/>
+      <c r="C13" s="429"/>
+      <c r="D13" s="429"/>
+      <c r="E13" s="429"/>
+      <c r="F13" s="429"/>
+      <c r="G13" s="429"/>
+      <c r="H13" s="429"/>
+      <c r="I13" s="429"/>
+      <c r="J13" s="535"/>
     </row>
     <row r="14" spans="1:10" ht="48" customHeight="1">
-      <c r="A14" s="529" t="s">
-        <v>394</v>
-      </c>
-      <c r="B14" s="449"/>
-      <c r="C14" s="449"/>
-      <c r="D14" s="449"/>
-      <c r="E14" s="449"/>
-      <c r="F14" s="449"/>
-      <c r="G14" s="449"/>
-      <c r="H14" s="449"/>
-      <c r="I14" s="449"/>
-      <c r="J14" s="530"/>
+      <c r="A14" s="532" t="s">
+        <v>391</v>
+      </c>
+      <c r="B14" s="480"/>
+      <c r="C14" s="480"/>
+      <c r="D14" s="480"/>
+      <c r="E14" s="480"/>
+      <c r="F14" s="480"/>
+      <c r="G14" s="480"/>
+      <c r="H14" s="480"/>
+      <c r="I14" s="480"/>
+      <c r="J14" s="533"/>
     </row>
     <row r="15" spans="1:10" ht="11.5" customHeight="1">
       <c r="A15" s="215"/>
@@ -14742,32 +14745,32 @@
       <c r="J15" s="216"/>
     </row>
     <row r="16" spans="1:10" ht="14" customHeight="1">
-      <c r="A16" s="531" t="s">
-        <v>395</v>
-      </c>
-      <c r="B16" s="435"/>
-      <c r="C16" s="435"/>
-      <c r="D16" s="435"/>
-      <c r="E16" s="435"/>
-      <c r="F16" s="435"/>
-      <c r="G16" s="435"/>
-      <c r="H16" s="435"/>
-      <c r="I16" s="435"/>
-      <c r="J16" s="532"/>
+      <c r="A16" s="534" t="s">
+        <v>392</v>
+      </c>
+      <c r="B16" s="429"/>
+      <c r="C16" s="429"/>
+      <c r="D16" s="429"/>
+      <c r="E16" s="429"/>
+      <c r="F16" s="429"/>
+      <c r="G16" s="429"/>
+      <c r="H16" s="429"/>
+      <c r="I16" s="429"/>
+      <c r="J16" s="535"/>
     </row>
     <row r="17" spans="1:10" ht="49.5" customHeight="1">
-      <c r="A17" s="529" t="s">
-        <v>396</v>
-      </c>
-      <c r="B17" s="449"/>
-      <c r="C17" s="449"/>
-      <c r="D17" s="449"/>
-      <c r="E17" s="449"/>
-      <c r="F17" s="449"/>
-      <c r="G17" s="449"/>
-      <c r="H17" s="449"/>
-      <c r="I17" s="449"/>
-      <c r="J17" s="530"/>
+      <c r="A17" s="532" t="s">
+        <v>393</v>
+      </c>
+      <c r="B17" s="480"/>
+      <c r="C17" s="480"/>
+      <c r="D17" s="480"/>
+      <c r="E17" s="480"/>
+      <c r="F17" s="480"/>
+      <c r="G17" s="480"/>
+      <c r="H17" s="480"/>
+      <c r="I17" s="480"/>
+      <c r="J17" s="533"/>
     </row>
     <row r="18" spans="1:10" ht="14.5" customHeight="1">
       <c r="A18" s="215"/>
@@ -14782,32 +14785,32 @@
       <c r="J18" s="216"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="531" t="s">
-        <v>397</v>
-      </c>
-      <c r="B19" s="435"/>
-      <c r="C19" s="435"/>
-      <c r="D19" s="435"/>
-      <c r="E19" s="435"/>
-      <c r="F19" s="435"/>
-      <c r="G19" s="435"/>
-      <c r="H19" s="435"/>
-      <c r="I19" s="435"/>
-      <c r="J19" s="532"/>
+      <c r="A19" s="534" t="s">
+        <v>394</v>
+      </c>
+      <c r="B19" s="429"/>
+      <c r="C19" s="429"/>
+      <c r="D19" s="429"/>
+      <c r="E19" s="429"/>
+      <c r="F19" s="429"/>
+      <c r="G19" s="429"/>
+      <c r="H19" s="429"/>
+      <c r="I19" s="429"/>
+      <c r="J19" s="535"/>
     </row>
     <row r="20" spans="1:10" ht="52" customHeight="1">
-      <c r="A20" s="529" t="s">
-        <v>398</v>
-      </c>
-      <c r="B20" s="449"/>
-      <c r="C20" s="449"/>
-      <c r="D20" s="449"/>
-      <c r="E20" s="449"/>
-      <c r="F20" s="449"/>
-      <c r="G20" s="449"/>
-      <c r="H20" s="449"/>
-      <c r="I20" s="449"/>
-      <c r="J20" s="530"/>
+      <c r="A20" s="532" t="s">
+        <v>395</v>
+      </c>
+      <c r="B20" s="480"/>
+      <c r="C20" s="480"/>
+      <c r="D20" s="480"/>
+      <c r="E20" s="480"/>
+      <c r="F20" s="480"/>
+      <c r="G20" s="480"/>
+      <c r="H20" s="480"/>
+      <c r="I20" s="480"/>
+      <c r="J20" s="533"/>
     </row>
     <row r="21" spans="1:10" ht="11" customHeight="1">
       <c r="A21" s="217"/>
@@ -14822,32 +14825,32 @@
       <c r="J21" s="219"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="531" t="s">
-        <v>399</v>
-      </c>
-      <c r="B22" s="435"/>
-      <c r="C22" s="435"/>
-      <c r="D22" s="435"/>
-      <c r="E22" s="435"/>
-      <c r="F22" s="435"/>
-      <c r="G22" s="435"/>
-      <c r="H22" s="435"/>
-      <c r="I22" s="435"/>
-      <c r="J22" s="532"/>
+      <c r="A22" s="534" t="s">
+        <v>396</v>
+      </c>
+      <c r="B22" s="429"/>
+      <c r="C22" s="429"/>
+      <c r="D22" s="429"/>
+      <c r="E22" s="429"/>
+      <c r="F22" s="429"/>
+      <c r="G22" s="429"/>
+      <c r="H22" s="429"/>
+      <c r="I22" s="429"/>
+      <c r="J22" s="535"/>
     </row>
     <row r="23" spans="1:10" ht="46" customHeight="1">
-      <c r="A23" s="529" t="s">
-        <v>400</v>
-      </c>
-      <c r="B23" s="449"/>
-      <c r="C23" s="449"/>
-      <c r="D23" s="449"/>
-      <c r="E23" s="449"/>
-      <c r="F23" s="449"/>
-      <c r="G23" s="449"/>
-      <c r="H23" s="449"/>
-      <c r="I23" s="449"/>
-      <c r="J23" s="530"/>
+      <c r="A23" s="532" t="s">
+        <v>397</v>
+      </c>
+      <c r="B23" s="480"/>
+      <c r="C23" s="480"/>
+      <c r="D23" s="480"/>
+      <c r="E23" s="480"/>
+      <c r="F23" s="480"/>
+      <c r="G23" s="480"/>
+      <c r="H23" s="480"/>
+      <c r="I23" s="480"/>
+      <c r="J23" s="533"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="215"/>
@@ -14862,49 +14865,52 @@
       <c r="J24" s="216"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="531" t="s">
-        <v>401</v>
-      </c>
-      <c r="B25" s="435"/>
-      <c r="C25" s="435"/>
-      <c r="D25" s="435"/>
-      <c r="E25" s="435"/>
-      <c r="F25" s="435"/>
-      <c r="G25" s="435"/>
-      <c r="H25" s="435"/>
-      <c r="I25" s="435"/>
-      <c r="J25" s="532"/>
+      <c r="A25" s="534" t="s">
+        <v>398</v>
+      </c>
+      <c r="B25" s="429"/>
+      <c r="C25" s="429"/>
+      <c r="D25" s="429"/>
+      <c r="E25" s="429"/>
+      <c r="F25" s="429"/>
+      <c r="G25" s="429"/>
+      <c r="H25" s="429"/>
+      <c r="I25" s="429"/>
+      <c r="J25" s="535"/>
     </row>
     <row r="26" spans="1:10" ht="49.5" customHeight="1">
-      <c r="A26" s="529" t="s">
-        <v>402</v>
-      </c>
-      <c r="B26" s="449"/>
-      <c r="C26" s="449"/>
-      <c r="D26" s="449"/>
-      <c r="E26" s="449"/>
-      <c r="F26" s="449"/>
-      <c r="G26" s="449"/>
-      <c r="H26" s="449"/>
-      <c r="I26" s="449"/>
-      <c r="J26" s="530"/>
+      <c r="A26" s="532" t="s">
+        <v>399</v>
+      </c>
+      <c r="B26" s="480"/>
+      <c r="C26" s="480"/>
+      <c r="D26" s="480"/>
+      <c r="E26" s="480"/>
+      <c r="F26" s="480"/>
+      <c r="G26" s="480"/>
+      <c r="H26" s="480"/>
+      <c r="I26" s="480"/>
+      <c r="J26" s="533"/>
     </row>
     <row r="27" spans="1:10" ht="47" customHeight="1" thickBot="1">
-      <c r="A27" s="536" t="s">
-        <v>403</v>
-      </c>
-      <c r="B27" s="537"/>
-      <c r="C27" s="537"/>
-      <c r="D27" s="537"/>
-      <c r="E27" s="537"/>
-      <c r="F27" s="537"/>
-      <c r="G27" s="537"/>
-      <c r="H27" s="537"/>
-      <c r="I27" s="537"/>
-      <c r="J27" s="538"/>
+      <c r="A27" s="529" t="s">
+        <v>400</v>
+      </c>
+      <c r="B27" s="530"/>
+      <c r="C27" s="530"/>
+      <c r="D27" s="530"/>
+      <c r="E27" s="530"/>
+      <c r="F27" s="530"/>
+      <c r="G27" s="530"/>
+      <c r="H27" s="530"/>
+      <c r="I27" s="530"/>
+      <c r="J27" s="531"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
     <mergeCell ref="A27:J27"/>
     <mergeCell ref="A26:J26"/>
     <mergeCell ref="A20:J20"/>
@@ -14916,9 +14922,6 @@
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A22:J22"/>
     <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="92" orientation="portrait"/>
@@ -14947,24 +14950,24 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2" s="539" t="s">
-        <v>404</v>
-      </c>
-      <c r="C2" s="478"/>
-      <c r="D2" s="461"/>
+        <v>401</v>
+      </c>
+      <c r="C2" s="423"/>
+      <c r="D2" s="453"/>
       <c r="E2" s="126"/>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="448"/>
-      <c r="C3" s="449"/>
-      <c r="D3" s="450"/>
+      <c r="B3" s="479"/>
+      <c r="C3" s="480"/>
+      <c r="D3" s="442"/>
       <c r="E3" s="126"/>
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="71" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C4" s="71" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D4" s="71"/>
       <c r="E4" s="63"/>
@@ -14976,7 +14979,7 @@
         <v>4.4717512294175936</v>
       </c>
       <c r="D5" s="71" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E5" s="63"/>
     </row>
@@ -14988,38 +14991,38 @@
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="540" t="s">
-        <v>408</v>
-      </c>
-      <c r="C7" s="423"/>
+        <v>405</v>
+      </c>
+      <c r="C7" s="430"/>
       <c r="D7" s="71"/>
       <c r="E7" s="63"/>
     </row>
     <row r="8" spans="2:13" ht="26" customHeight="1">
       <c r="B8" s="71"/>
       <c r="C8" s="127" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D8" s="266"/>
       <c r="F8" s="128" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="71" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C9" s="129">
         <f>(2/3*'Input-Output'!B2/10*'Input-Output'!B3/10*'Input-Output'!B10*'Input-Output'!B13*0.33)*'Input-Output'!B10</f>
         <v>30694.399999999994</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E9" s="63"/>
     </row>
     <row r="10" spans="2:13" ht="26" customHeight="1">
       <c r="B10" s="71" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C10" s="71"/>
       <c r="D10" s="71"/>
@@ -15029,14 +15032,14 @@
         <v>44.717512294175933</v>
       </c>
       <c r="H10" s="130" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I10" s="32">
         <f>C17*10</f>
         <v>34.71751229417594</v>
       </c>
       <c r="L10" s="130" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="M10" s="32">
         <f>C16*10</f>
@@ -15045,7 +15048,7 @@
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="71" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="71"/>
@@ -15053,7 +15056,7 @@
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="71" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C12" s="71"/>
       <c r="D12" s="71"/>
@@ -15067,7 +15070,7 @@
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="71" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C14" s="71"/>
       <c r="D14" s="71"/>
@@ -15076,7 +15079,7 @@
     <row r="15" spans="2:13">
       <c r="B15" s="71"/>
       <c r="C15" s="127" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D15" s="71"/>
       <c r="E15" s="63"/>
@@ -15088,7 +15091,7 @@
         <v>2.4717512294175941</v>
       </c>
       <c r="D16" s="71" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E16" s="63"/>
     </row>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="71" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C18" s="71"/>
       <c r="D18" s="71"/>
@@ -15111,7 +15114,7 @@
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="71" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C19" s="131">
         <v>4</v>
@@ -15129,13 +15132,13 @@
     </row>
     <row r="20" spans="2:12" ht="16.5" customHeight="1">
       <c r="B20" s="71" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C20" s="131">
         <v>1600</v>
       </c>
       <c r="D20" s="71" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E20" s="63"/>
     </row>
@@ -15180,11 +15183,11 @@
         <v>25</v>
       </c>
       <c r="N4" s="543" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O4" s="544"/>
-      <c r="P4" s="446"/>
-      <c r="Q4" s="446"/>
+      <c r="P4" s="477"/>
+      <c r="Q4" s="477"/>
     </row>
     <row r="5" spans="10:17">
       <c r="K5" s="60">
@@ -15207,10 +15210,10 @@
     </row>
     <row r="8" spans="10:17">
       <c r="N8" s="120" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O8" s="363" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="P8" s="224">
         <f>VLOOKUP(O11,N13:P18,2,FALSE)</f>
@@ -15223,10 +15226,10 @@
     </row>
     <row r="9" spans="10:17">
       <c r="N9" s="120" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O9" s="363" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="P9" s="419">
         <f>P8/10</f>
@@ -15239,7 +15242,7 @@
     </row>
     <row r="11" spans="10:17">
       <c r="N11" s="363" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="O11" s="363">
         <f>'Input-Output'!B10</f>
@@ -15327,18 +15330,18 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="541" t="s">
+        <v>419</v>
+      </c>
+      <c r="B25" s="542" t="s">
         <v>422</v>
       </c>
-      <c r="B25" s="542" t="s">
-        <v>425</v>
-      </c>
-      <c r="C25" s="435"/>
-      <c r="D25" s="435"/>
-      <c r="E25" s="435"/>
-      <c r="F25" s="423"/>
+      <c r="C25" s="429"/>
+      <c r="D25" s="429"/>
+      <c r="E25" s="429"/>
+      <c r="F25" s="430"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="427"/>
+      <c r="A26" s="484"/>
       <c r="B26" s="363">
         <v>1</v>
       </c>
@@ -15354,11 +15357,11 @@
       <c r="F26" s="363">
         <v>8</v>
       </c>
-      <c r="H26" s="499" t="s">
-        <v>426</v>
-      </c>
-      <c r="I26" s="435"/>
-      <c r="J26" s="423"/>
+      <c r="H26" s="505" t="s">
+        <v>423</v>
+      </c>
+      <c r="I26" s="429"/>
+      <c r="J26" s="430"/>
       <c r="K26" s="123">
         <f>'Input-Output'!B2</f>
         <v>160</v>
@@ -15369,28 +15372,28 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="116" t="s">
+        <v>424</v>
+      </c>
+      <c r="B27" s="339" t="s">
+        <v>425</v>
+      </c>
+      <c r="C27" s="339" t="s">
+        <v>426</v>
+      </c>
+      <c r="D27" s="339" t="s">
+        <v>426</v>
+      </c>
+      <c r="E27" s="339" t="s">
+        <v>426</v>
+      </c>
+      <c r="F27" s="339" t="s">
         <v>427</v>
       </c>
-      <c r="B27" s="339" t="s">
+      <c r="H27" s="505" t="s">
         <v>428</v>
       </c>
-      <c r="C27" s="339" t="s">
-        <v>429</v>
-      </c>
-      <c r="D27" s="339" t="s">
-        <v>429</v>
-      </c>
-      <c r="E27" s="339" t="s">
-        <v>429</v>
-      </c>
-      <c r="F27" s="339" t="s">
-        <v>430</v>
-      </c>
-      <c r="H27" s="499" t="s">
-        <v>431</v>
-      </c>
-      <c r="I27" s="435"/>
-      <c r="J27" s="423"/>
+      <c r="I27" s="429"/>
+      <c r="J27" s="430"/>
       <c r="K27" s="123">
         <f>'Input-Output'!B3</f>
         <v>218</v>
@@ -15401,7 +15404,7 @@
     </row>
     <row r="28" spans="1:16" ht="29" customHeight="1">
       <c r="A28" s="117" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B28" s="118">
         <f>K26+2*K29</f>
@@ -15423,11 +15426,11 @@
         <f>4*K26+3*K28+2*K29</f>
         <v>1029.4350245883518</v>
       </c>
-      <c r="H28" s="499" t="s">
-        <v>433</v>
-      </c>
-      <c r="I28" s="435"/>
-      <c r="J28" s="423"/>
+      <c r="H28" s="505" t="s">
+        <v>430</v>
+      </c>
+      <c r="I28" s="429"/>
+      <c r="J28" s="430"/>
       <c r="K28" s="123">
         <f>'Input-Output'!F7</f>
         <v>50</v>
@@ -15438,28 +15441,28 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="116" t="s">
+        <v>431</v>
+      </c>
+      <c r="B29" s="339" t="s">
+        <v>432</v>
+      </c>
+      <c r="C29" s="339" t="s">
+        <v>433</v>
+      </c>
+      <c r="D29" s="339" t="s">
         <v>434</v>
       </c>
-      <c r="B29" s="339" t="s">
+      <c r="E29" s="339" t="s">
         <v>435</v>
       </c>
-      <c r="C29" s="339" t="s">
+      <c r="F29" s="339" t="s">
         <v>436</v>
       </c>
-      <c r="D29" s="339" t="s">
+      <c r="H29" s="505" t="s">
         <v>437</v>
       </c>
-      <c r="E29" s="339" t="s">
-        <v>438</v>
-      </c>
-      <c r="F29" s="339" t="s">
-        <v>439</v>
-      </c>
-      <c r="H29" s="499" t="s">
-        <v>440</v>
-      </c>
-      <c r="I29" s="435"/>
-      <c r="J29" s="423"/>
+      <c r="I29" s="429"/>
+      <c r="J29" s="430"/>
       <c r="K29" s="124">
         <f>L4+K5+J7</f>
         <v>119.71751229417593</v>
@@ -15470,7 +15473,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="117" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B30" s="118">
         <f>K27+2*K29</f>
@@ -15505,7 +15508,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="117" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B32" s="119">
         <f>'Mould Costing'!$F$9+'Mould Costing'!$F$10+'Mould Costing'!$F$11+'Mould Costing'!$F$14+'Mould Costing'!$F$15</f>
@@ -15530,13 +15533,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="H26:J26"/>
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="H27:J27"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="H26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15586,41 +15589,41 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="93"/>
-      <c r="B2" s="549" t="s">
-        <v>441</v>
-      </c>
-      <c r="C2" s="435"/>
-      <c r="D2" s="423"/>
-      <c r="F2" s="550" t="s">
-        <v>442</v>
-      </c>
-      <c r="G2" s="435"/>
-      <c r="H2" s="435"/>
-      <c r="I2" s="435"/>
-      <c r="J2" s="423"/>
+      <c r="B2" s="546" t="s">
+        <v>438</v>
+      </c>
+      <c r="C2" s="429"/>
+      <c r="D2" s="430"/>
+      <c r="F2" s="547" t="s">
+        <v>439</v>
+      </c>
+      <c r="G2" s="429"/>
+      <c r="H2" s="429"/>
+      <c r="I2" s="429"/>
+      <c r="J2" s="430"/>
       <c r="K2" s="351"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="93"/>
-      <c r="B3" s="545" t="s">
-        <v>443</v>
-      </c>
-      <c r="C3" s="435"/>
-      <c r="D3" s="423"/>
+      <c r="B3" s="548" t="s">
+        <v>440</v>
+      </c>
+      <c r="C3" s="429"/>
+      <c r="D3" s="430"/>
       <c r="F3" s="94" t="s">
         <v>236</v>
       </c>
       <c r="G3" s="94" t="s">
+        <v>441</v>
+      </c>
+      <c r="H3" s="94" t="s">
+        <v>442</v>
+      </c>
+      <c r="I3" s="94" t="s">
+        <v>443</v>
+      </c>
+      <c r="J3" s="94" t="s">
         <v>444</v>
-      </c>
-      <c r="H3" s="94" t="s">
-        <v>445</v>
-      </c>
-      <c r="I3" s="94" t="s">
-        <v>446</v>
-      </c>
-      <c r="J3" s="94" t="s">
-        <v>447</v>
       </c>
       <c r="K3" s="351"/>
     </row>
@@ -15630,7 +15633,7 @@
       <c r="C4" s="266"/>
       <c r="D4" s="266"/>
       <c r="F4" s="95" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G4" s="96">
         <v>0.33</v>
@@ -15649,17 +15652,17 @@
     <row r="5" spans="1:16">
       <c r="A5" s="93"/>
       <c r="B5" s="71" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C5" s="358" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D5" s="97">
         <f>POWER(((5*D6*D7^4)/(32*(2*10^6)*D9*D10)),1/3)</f>
         <v>5.4940641301582156</v>
       </c>
       <c r="F5" s="98" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G5" s="96">
         <v>0.2</v>
@@ -15678,17 +15681,17 @@
     <row r="6" spans="1:16" ht="16.5" customHeight="1">
       <c r="A6" s="93"/>
       <c r="B6" s="71" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C6" s="358" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D6" s="358">
         <f>'Input-Output'!B13*0.33</f>
         <v>132</v>
       </c>
       <c r="F6" s="95" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G6" s="96">
         <v>0.47</v>
@@ -15707,10 +15710,10 @@
     <row r="7" spans="1:16">
       <c r="A7" s="93"/>
       <c r="B7" s="71" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C7" s="358" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D7" s="99">
         <f>'Mould Costing'!B3/10</f>
@@ -15736,16 +15739,16 @@
     <row r="8" spans="1:16" ht="16.5" customHeight="1">
       <c r="A8" s="93"/>
       <c r="B8" s="71" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C8" s="358" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D8" s="358" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F8" s="95" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G8" s="96">
         <v>0.4</v>
@@ -15764,17 +15767,17 @@
     <row r="9" spans="1:16">
       <c r="A9" s="93"/>
       <c r="B9" s="71" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C9" s="358" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D9" s="99">
         <f>'Mould Costing'!B4/10</f>
         <v>50.743502458835188</v>
       </c>
       <c r="F9" s="98" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G9" s="96">
         <v>0.28000000000000003</v>
@@ -15793,16 +15796,16 @@
     <row r="10" spans="1:16">
       <c r="A10" s="93"/>
       <c r="B10" s="100" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C10" s="358" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D10" s="358">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F10" s="95" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G10" s="96">
         <v>0.26</v>
@@ -15825,7 +15828,7 @@
       <c r="D11" s="63"/>
       <c r="E11" s="63"/>
       <c r="F11" s="98" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G11" s="96">
         <v>0.37</v>
@@ -15844,7 +15847,7 @@
     <row r="12" spans="1:16">
       <c r="A12" s="93"/>
       <c r="B12" s="101" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C12" s="102">
         <f>'Input-Output'!B15+1.5</f>
@@ -15858,7 +15861,7 @@
     <row r="13" spans="1:16">
       <c r="A13" s="104"/>
       <c r="B13" s="105" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C13" s="102">
         <f>C12/4.5</f>
@@ -15867,18 +15870,18 @@
       <c r="D13" s="103" t="s">
         <v>223</v>
       </c>
-      <c r="F13" s="547" t="s">
-        <v>458</v>
-      </c>
-      <c r="G13" s="423"/>
-      <c r="H13" s="547"/>
-      <c r="I13" s="423"/>
+      <c r="F13" s="545" t="s">
+        <v>455</v>
+      </c>
+      <c r="G13" s="430"/>
+      <c r="H13" s="545"/>
+      <c r="I13" s="430"/>
       <c r="K13" s="351"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="93"/>
       <c r="F14" s="326" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G14" s="327"/>
       <c r="H14" s="79">
@@ -15886,19 +15889,19 @@
         <v>5876.1998060606093</v>
       </c>
       <c r="I14" s="266" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="K14" s="351"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="93"/>
-      <c r="B15" s="548" t="s">
-        <v>461</v>
-      </c>
-      <c r="C15" s="435"/>
-      <c r="D15" s="423"/>
+      <c r="B15" s="550" t="s">
+        <v>458</v>
+      </c>
+      <c r="C15" s="429"/>
+      <c r="D15" s="430"/>
       <c r="F15" s="326" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G15" s="327"/>
       <c r="H15" s="79">
@@ -15906,21 +15909,21 @@
         <v>599.20784662361245</v>
       </c>
       <c r="I15" s="266" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K15" s="351"/>
     </row>
     <row r="16" spans="1:16" ht="29" customHeight="1">
       <c r="A16" s="93"/>
-      <c r="B16" s="546" t="s">
-        <v>463</v>
-      </c>
-      <c r="C16" s="435"/>
-      <c r="D16" s="423"/>
-      <c r="F16" s="442" t="s">
+      <c r="B16" s="549" t="s">
+        <v>460</v>
+      </c>
+      <c r="C16" s="429"/>
+      <c r="D16" s="430"/>
+      <c r="F16" s="433" t="s">
         <v>244</v>
       </c>
-      <c r="G16" s="423"/>
+      <c r="G16" s="430"/>
       <c r="H16" s="79">
         <f>'Input-Output'!B10</f>
         <v>1</v>
@@ -15928,39 +15931,39 @@
       <c r="I16" s="266"/>
       <c r="K16" s="351"/>
       <c r="P16" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1">
       <c r="A17" s="93"/>
       <c r="B17" s="106" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C17" s="107">
         <f>POWER(((5*C18*C19^4)/(32*(2*10^6)*C21*C22)),1/3)</f>
         <v>4.4961417852168886</v>
       </c>
       <c r="D17" s="266" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E17" s="106"/>
-      <c r="F17" s="442" t="s">
-        <v>467</v>
-      </c>
-      <c r="G17" s="423"/>
+      <c r="F17" s="433" t="s">
+        <v>464</v>
+      </c>
+      <c r="G17" s="430"/>
       <c r="H17" s="79">
         <f>H16*H15</f>
         <v>599.20784662361245</v>
       </c>
       <c r="I17" s="266" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K17" s="351"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="93"/>
       <c r="B18" s="108" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C18" s="109">
         <f>C25*G19</f>
@@ -15968,24 +15971,24 @@
       </c>
       <c r="D18" s="266"/>
       <c r="F18" s="266" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G18" s="266" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K18" s="351"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="93"/>
       <c r="B19" s="108" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C19" s="109">
         <f>'Mould Costing'!D13/10</f>
         <v>27</v>
       </c>
       <c r="D19" s="266" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F19" s="110">
         <v>1</v>
@@ -15998,10 +16001,10 @@
     <row r="20" spans="1:11" ht="16.5" customHeight="1">
       <c r="A20" s="93"/>
       <c r="B20" s="108" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C20" s="111" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D20" s="266"/>
       <c r="K20" s="351"/>
@@ -16009,14 +16012,14 @@
     <row r="21" spans="1:11">
       <c r="A21" s="93"/>
       <c r="B21" s="108" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C21" s="109">
         <f>'Mould Costing'!E13/10</f>
         <v>54.743502458835188</v>
       </c>
       <c r="D21" s="266" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F21" s="112"/>
       <c r="K21" s="351"/>
@@ -16024,13 +16027,13 @@
     <row r="22" spans="1:11">
       <c r="A22" s="93"/>
       <c r="B22" s="108" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C22" s="111">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D22" s="266" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="K22" s="351"/>
     </row>
@@ -16041,154 +16044,154 @@
     <row r="24" spans="1:11">
       <c r="A24" s="93"/>
       <c r="B24" s="113" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="K24" s="351"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="93"/>
       <c r="B25" s="113" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C25" s="23">
         <f>(C26*C27*C28*C31*C32)/(C30/(2*C33)*(1-(C29/2)))</f>
         <v>5876.1998060606093</v>
       </c>
       <c r="D25" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E25" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="K25" s="351"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="93"/>
       <c r="B26" s="113" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C26">
         <f>VLOOKUP('Input-Output'!B9,Table11[],5,0)*10^5</f>
         <v>249500</v>
       </c>
       <c r="D26" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E26" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="K26" s="351"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="93"/>
       <c r="B27" s="113" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C27">
         <f>2*'Input-Output'!B4/10*'Input-Output'!B3/10+2*'Input-Output'!B4/10*'Input-Output'!B2/10</f>
         <v>491.4</v>
       </c>
       <c r="D27" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E27" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="K27" s="351"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="93"/>
       <c r="B28" s="113" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C28" s="114">
         <f>VLOOKUP('Input-Output'!$B$9,'Core &amp; Ejector Plate'!$F$4:$J$11,2,FALSE)</f>
         <v>0.35</v>
       </c>
       <c r="E28" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="K28" s="351"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="93"/>
       <c r="B29" s="113" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C29" s="114">
         <f>VLOOKUP('Input-Output'!$B$9,'Core &amp; Ejector Plate'!$F$4:$J$11,3,FALSE)</f>
         <v>0.35</v>
       </c>
       <c r="E29" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="K29" s="351"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="93"/>
       <c r="B30" s="113" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C30" s="115">
         <f>((2*'Input-Output'!B2/10+(2*'Input-Output'!B3/10))/3.14)</f>
         <v>24.076433121019104</v>
       </c>
       <c r="D30" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E30" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="K30" s="351"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="93"/>
       <c r="B31" s="113" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C31" s="114">
         <f>VLOOKUP('Input-Output'!$B$9,'Core &amp; Ejector Plate'!$F$4:$J$11,4,FALSE)</f>
         <v>8.0000000000000007E-5</v>
       </c>
       <c r="D31" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E31" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="K31" s="351"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="93"/>
       <c r="B32" s="113" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C32" s="114">
         <f>VLOOKUP('Input-Output'!$B$9,'Core &amp; Ejector Plate'!$F$4:$J$11,5,FALSE)-20</f>
         <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E32" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="K32" s="351"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="93"/>
       <c r="B33" s="113" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C33">
         <f>'Input-Output'!B14/10</f>
         <v>0.2</v>
       </c>
       <c r="D33" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E33" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K33" s="351"/>
     </row>
@@ -16257,7 +16260,7 @@
       <c r="A2" s="551" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="446"/>
+      <c r="B2" s="477"/>
       <c r="C2" s="75">
         <f>SUM(L4:L19)</f>
         <v>70</v>
@@ -16269,40 +16272,40 @@
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1">
       <c r="A3" s="76" t="s">
+        <v>494</v>
+      </c>
+      <c r="B3" s="77" t="s">
+        <v>495</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>496</v>
+      </c>
+      <c r="D3" s="78" t="s">
         <v>497</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="E3" s="78" t="s">
         <v>498</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="F3" s="78" t="s">
         <v>499</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="G3" s="78" t="s">
         <v>500</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="H3" s="78" t="s">
         <v>501</v>
       </c>
-      <c r="F3" s="78" t="s">
+      <c r="I3" s="78" t="s">
         <v>502</v>
       </c>
-      <c r="G3" s="78" t="s">
+      <c r="J3" s="78" t="s">
         <v>503</v>
       </c>
-      <c r="H3" s="78" t="s">
+      <c r="K3" s="78" t="s">
         <v>504</v>
       </c>
-      <c r="I3" s="78" t="s">
+      <c r="L3" s="83" t="s">
         <v>505</v>
-      </c>
-      <c r="J3" s="78" t="s">
-        <v>506</v>
-      </c>
-      <c r="K3" s="78" t="s">
-        <v>507</v>
-      </c>
-      <c r="L3" s="83" t="s">
-        <v>508</v>
       </c>
       <c r="M3" s="21"/>
       <c r="N3" s="21"/>
@@ -16313,7 +16316,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="71" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C4" s="71" t="s">
         <v>66</v>
@@ -16357,7 +16360,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="266" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C5" s="71" t="s">
         <v>69</v>
@@ -16401,7 +16404,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="266" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C6" s="71" t="s">
         <v>71</v>
@@ -16444,7 +16447,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="266" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C7" s="71" t="s">
         <v>71</v>
@@ -16485,7 +16488,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="266" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C8" s="71" t="s">
         <v>72</v>
@@ -16766,7 +16769,7 @@
       <c r="A21" s="551" t="s">
         <v>132</v>
       </c>
-      <c r="B21" s="446"/>
+      <c r="B21" s="477"/>
       <c r="C21" s="75">
         <f>SUM(L23:L38)</f>
         <v>63</v>
@@ -16778,40 +16781,40 @@
     </row>
     <row r="22" spans="1:15" ht="16.5" customHeight="1">
       <c r="A22" s="76" t="s">
+        <v>494</v>
+      </c>
+      <c r="B22" s="77" t="s">
+        <v>495</v>
+      </c>
+      <c r="C22" s="77" t="s">
+        <v>496</v>
+      </c>
+      <c r="D22" s="78" t="s">
         <v>497</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="E22" s="78" t="s">
         <v>498</v>
       </c>
-      <c r="C22" s="77" t="s">
+      <c r="F22" s="78" t="s">
         <v>499</v>
       </c>
-      <c r="D22" s="78" t="s">
+      <c r="G22" s="78" t="s">
         <v>500</v>
       </c>
-      <c r="E22" s="78" t="s">
+      <c r="H22" s="78" t="s">
         <v>501</v>
       </c>
-      <c r="F22" s="78" t="s">
+      <c r="I22" s="78" t="s">
         <v>502</v>
       </c>
-      <c r="G22" s="78" t="s">
+      <c r="J22" s="78" t="s">
         <v>503</v>
       </c>
-      <c r="H22" s="78" t="s">
+      <c r="K22" s="78" t="s">
         <v>504</v>
       </c>
-      <c r="I22" s="78" t="s">
+      <c r="L22" s="83" t="s">
         <v>505</v>
-      </c>
-      <c r="J22" s="78" t="s">
-        <v>506</v>
-      </c>
-      <c r="K22" s="78" t="s">
-        <v>507</v>
-      </c>
-      <c r="L22" s="83" t="s">
-        <v>508</v>
       </c>
       <c r="M22" s="21"/>
       <c r="N22" s="21"/>
@@ -16822,7 +16825,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="71" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C23" s="71" t="s">
         <v>66</v>
@@ -16865,7 +16868,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="266" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C24" s="71" t="s">
         <v>69</v>
@@ -16907,7 +16910,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="266" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C25" s="71" t="s">
         <v>71</v>
@@ -16948,7 +16951,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="266" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C26" s="71" t="s">
         <v>72</v>
@@ -17257,7 +17260,7 @@
       <c r="A40" s="551" t="s">
         <v>133</v>
       </c>
-      <c r="B40" s="446"/>
+      <c r="B40" s="477"/>
       <c r="C40" s="75">
         <f>SUM(L42:L57)</f>
         <v>58</v>
@@ -17267,40 +17270,40 @@
     </row>
     <row r="41" spans="1:12" ht="16.5" customHeight="1">
       <c r="A41" s="76" t="s">
+        <v>494</v>
+      </c>
+      <c r="B41" s="77" t="s">
+        <v>495</v>
+      </c>
+      <c r="C41" s="77" t="s">
+        <v>496</v>
+      </c>
+      <c r="D41" s="78" t="s">
         <v>497</v>
       </c>
-      <c r="B41" s="77" t="s">
+      <c r="E41" s="78" t="s">
         <v>498</v>
       </c>
-      <c r="C41" s="77" t="s">
+      <c r="F41" s="78" t="s">
         <v>499</v>
       </c>
-      <c r="D41" s="78" t="s">
+      <c r="G41" s="78" t="s">
         <v>500</v>
       </c>
-      <c r="E41" s="78" t="s">
+      <c r="H41" s="78" t="s">
         <v>501</v>
       </c>
-      <c r="F41" s="78" t="s">
+      <c r="I41" s="78" t="s">
         <v>502</v>
       </c>
-      <c r="G41" s="78" t="s">
+      <c r="J41" s="78" t="s">
         <v>503</v>
       </c>
-      <c r="H41" s="78" t="s">
+      <c r="K41" s="78" t="s">
         <v>504</v>
       </c>
-      <c r="I41" s="78" t="s">
-        <v>505</v>
-      </c>
-      <c r="J41" s="78" t="s">
-        <v>506</v>
-      </c>
-      <c r="K41" s="78" t="s">
-        <v>507</v>
-      </c>
       <c r="L41" s="86" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -17308,7 +17311,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="71" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C42" s="71" t="s">
         <v>66</v>
@@ -17350,7 +17353,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="266" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C43" s="71" t="s">
         <v>69</v>
@@ -17392,7 +17395,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="266" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C44" s="71" t="s">
         <v>71</v>
@@ -17433,7 +17436,7 @@
         <v>4</v>
       </c>
       <c r="B45" s="266" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C45" s="71" t="s">
         <v>71</v>
@@ -17641,7 +17644,7 @@
       <c r="A59" s="551" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="446"/>
+      <c r="B59" s="477"/>
       <c r="C59" s="75" t="e">
         <f>SUM(L61:L76)</f>
         <v>#N/A</v>
@@ -17651,40 +17654,40 @@
     </row>
     <row r="60" spans="1:12" ht="16.5" customHeight="1">
       <c r="A60" s="76" t="s">
+        <v>494</v>
+      </c>
+      <c r="B60" s="77" t="s">
+        <v>495</v>
+      </c>
+      <c r="C60" s="77" t="s">
+        <v>496</v>
+      </c>
+      <c r="D60" s="78" t="s">
         <v>497</v>
       </c>
-      <c r="B60" s="77" t="s">
+      <c r="E60" s="78" t="s">
         <v>498</v>
       </c>
-      <c r="C60" s="77" t="s">
+      <c r="F60" s="78" t="s">
         <v>499</v>
       </c>
-      <c r="D60" s="78" t="s">
+      <c r="G60" s="78" t="s">
         <v>500</v>
       </c>
-      <c r="E60" s="78" t="s">
+      <c r="H60" s="78" t="s">
         <v>501</v>
       </c>
-      <c r="F60" s="78" t="s">
+      <c r="I60" s="78" t="s">
         <v>502</v>
       </c>
-      <c r="G60" s="78" t="s">
+      <c r="J60" s="78" t="s">
         <v>503</v>
       </c>
-      <c r="H60" s="78" t="s">
+      <c r="K60" s="78" t="s">
         <v>504</v>
       </c>
-      <c r="I60" s="78" t="s">
-        <v>505</v>
-      </c>
-      <c r="J60" s="78" t="s">
-        <v>506</v>
-      </c>
-      <c r="K60" s="78" t="s">
-        <v>507</v>
-      </c>
       <c r="L60" s="86" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -17692,7 +17695,7 @@
         <v>1</v>
       </c>
       <c r="B61" s="71" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C61" s="71" t="s">
         <v>66</v>
@@ -17734,7 +17737,7 @@
         <v>2</v>
       </c>
       <c r="B62" s="266" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C62" s="71" t="s">
         <v>69</v>
@@ -17776,7 +17779,7 @@
         <v>3</v>
       </c>
       <c r="B63" s="266" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C63" s="71" t="s">
         <v>71</v>
@@ -17817,7 +17820,7 @@
         <v>4</v>
       </c>
       <c r="B64" s="266" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C64" s="71" t="s">
         <v>67</v>
@@ -17858,7 +17861,7 @@
         <v>5</v>
       </c>
       <c r="B65" s="266" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C65" s="71" t="s">
         <v>72</v>
@@ -17899,7 +17902,7 @@
         <v>6</v>
       </c>
       <c r="B66" s="266" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C66" s="71" t="s">
         <v>80</v>
@@ -18197,7 +18200,7 @@
       <c r="A78" s="551" t="s">
         <v>135</v>
       </c>
-      <c r="B78" s="446"/>
+      <c r="B78" s="477"/>
       <c r="C78" s="75">
         <f>SUM(L80:L95)</f>
         <v>37</v>
@@ -18207,40 +18210,40 @@
     </row>
     <row r="79" spans="1:12" ht="16.5" customHeight="1">
       <c r="A79" s="76" t="s">
+        <v>494</v>
+      </c>
+      <c r="B79" s="77" t="s">
+        <v>495</v>
+      </c>
+      <c r="C79" s="77" t="s">
+        <v>496</v>
+      </c>
+      <c r="D79" s="78" t="s">
         <v>497</v>
       </c>
-      <c r="B79" s="77" t="s">
+      <c r="E79" s="78" t="s">
         <v>498</v>
       </c>
-      <c r="C79" s="77" t="s">
-        <v>499</v>
-      </c>
-      <c r="D79" s="78" t="s">
+      <c r="F79" s="78" t="s">
+        <v>518</v>
+      </c>
+      <c r="G79" s="78" t="s">
         <v>500</v>
       </c>
-      <c r="E79" s="78" t="s">
+      <c r="H79" s="78" t="s">
         <v>501</v>
       </c>
-      <c r="F79" s="78" t="s">
-        <v>521</v>
-      </c>
-      <c r="G79" s="78" t="s">
+      <c r="I79" s="78" t="s">
+        <v>502</v>
+      </c>
+      <c r="J79" s="78" t="s">
         <v>503</v>
       </c>
-      <c r="H79" s="78" t="s">
+      <c r="K79" s="78" t="s">
         <v>504</v>
       </c>
-      <c r="I79" s="78" t="s">
-        <v>505</v>
-      </c>
-      <c r="J79" s="78" t="s">
-        <v>506</v>
-      </c>
-      <c r="K79" s="78" t="s">
-        <v>507</v>
-      </c>
       <c r="L79" s="86" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -18248,7 +18251,7 @@
         <v>1</v>
       </c>
       <c r="B80" s="71" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C80" s="71" t="s">
         <v>66</v>
@@ -18290,7 +18293,7 @@
         <v>2</v>
       </c>
       <c r="B81" s="266" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C81" s="71" t="s">
         <v>69</v>
@@ -18332,7 +18335,7 @@
         <v>3</v>
       </c>
       <c r="B82" s="266" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C82" s="71" t="s">
         <v>71</v>
@@ -18373,7 +18376,7 @@
         <v>4</v>
       </c>
       <c r="B83" s="266" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C83" s="71" t="s">
         <v>67</v>
@@ -18581,7 +18584,7 @@
       <c r="A97" s="551" t="s">
         <v>136</v>
       </c>
-      <c r="B97" s="446"/>
+      <c r="B97" s="477"/>
       <c r="C97" s="75">
         <f>SUM(L99:L115)</f>
         <v>149</v>
@@ -18591,40 +18594,40 @@
     </row>
     <row r="98" spans="1:13" ht="16.5" customHeight="1">
       <c r="A98" s="76" t="s">
+        <v>494</v>
+      </c>
+      <c r="B98" s="77" t="s">
+        <v>495</v>
+      </c>
+      <c r="C98" s="77" t="s">
+        <v>496</v>
+      </c>
+      <c r="D98" s="78" t="s">
         <v>497</v>
       </c>
-      <c r="B98" s="77" t="s">
+      <c r="E98" s="78" t="s">
         <v>498</v>
       </c>
-      <c r="C98" s="77" t="s">
+      <c r="F98" s="78" t="s">
         <v>499</v>
       </c>
-      <c r="D98" s="78" t="s">
+      <c r="G98" s="78" t="s">
         <v>500</v>
       </c>
-      <c r="E98" s="78" t="s">
+      <c r="H98" s="78" t="s">
         <v>501</v>
       </c>
-      <c r="F98" s="78" t="s">
+      <c r="I98" s="78" t="s">
         <v>502</v>
       </c>
-      <c r="G98" s="78" t="s">
+      <c r="J98" s="78" t="s">
         <v>503</v>
       </c>
-      <c r="H98" s="78" t="s">
+      <c r="K98" s="78" t="s">
         <v>504</v>
       </c>
-      <c r="I98" s="78" t="s">
-        <v>505</v>
-      </c>
-      <c r="J98" s="78" t="s">
-        <v>506</v>
-      </c>
-      <c r="K98" s="78" t="s">
-        <v>507</v>
-      </c>
       <c r="L98" s="86" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -18632,7 +18635,7 @@
         <v>1</v>
       </c>
       <c r="B99" s="71" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C99" s="71" t="s">
         <v>66</v>
@@ -18674,7 +18677,7 @@
         <v>2</v>
       </c>
       <c r="B100" s="266" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C100" s="71" t="s">
         <v>69</v>
@@ -18716,7 +18719,7 @@
         <v>3</v>
       </c>
       <c r="B101" s="266" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C101" s="71" t="s">
         <v>66</v>
@@ -18758,7 +18761,7 @@
         <v>4</v>
       </c>
       <c r="B102" s="266" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C102" s="71" t="s">
         <v>71</v>
@@ -18799,7 +18802,7 @@
         <v>5</v>
       </c>
       <c r="B103" s="266" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C103" s="71" t="s">
         <v>67</v>
@@ -18840,7 +18843,7 @@
         <v>6</v>
       </c>
       <c r="B104" s="266" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C104" s="71" t="s">
         <v>79</v>
@@ -18884,7 +18887,7 @@
         <v>7</v>
       </c>
       <c r="B105" s="266" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C105" s="71" t="s">
         <v>80</v>
@@ -18922,7 +18925,7 @@
         <v>3</v>
       </c>
       <c r="M105" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -18930,7 +18933,7 @@
         <v>8</v>
       </c>
       <c r="B106" s="266" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C106" s="71" t="s">
         <v>74</v>
@@ -18966,7 +18969,7 @@
         <v>2</v>
       </c>
       <c r="M106" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -18974,7 +18977,7 @@
         <v>9</v>
       </c>
       <c r="B107" s="266" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C107" s="71" t="s">
         <v>69</v>
@@ -18999,7 +19002,7 @@
         <v>10</v>
       </c>
       <c r="B108" s="266" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C108" s="71" t="s">
         <v>72</v>
@@ -19035,7 +19038,7 @@
         <v>3</v>
       </c>
       <c r="M108" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -19043,7 +19046,7 @@
         <v>11</v>
       </c>
       <c r="B109" s="266" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C109" s="71"/>
       <c r="D109" s="266"/>
@@ -19146,7 +19149,7 @@
       <c r="A118" s="551" t="s">
         <v>138</v>
       </c>
-      <c r="B118" s="446"/>
+      <c r="B118" s="477"/>
       <c r="C118" s="75">
         <f>SUM(L120:L135)</f>
         <v>149</v>
@@ -19156,40 +19159,40 @@
     </row>
     <row r="119" spans="1:13" ht="16.5" customHeight="1">
       <c r="A119" s="76" t="s">
+        <v>494</v>
+      </c>
+      <c r="B119" s="77" t="s">
+        <v>495</v>
+      </c>
+      <c r="C119" s="77" t="s">
+        <v>496</v>
+      </c>
+      <c r="D119" s="78" t="s">
         <v>497</v>
       </c>
-      <c r="B119" s="77" t="s">
+      <c r="E119" s="78" t="s">
         <v>498</v>
       </c>
-      <c r="C119" s="77" t="s">
+      <c r="F119" s="78" t="s">
         <v>499</v>
       </c>
-      <c r="D119" s="78" t="s">
-        <v>500</v>
-      </c>
-      <c r="E119" s="78" t="s">
+      <c r="G119" s="78" t="s">
+        <v>530</v>
+      </c>
+      <c r="H119" s="78" t="s">
         <v>501</v>
       </c>
-      <c r="F119" s="78" t="s">
+      <c r="I119" s="78" t="s">
         <v>502</v>
       </c>
-      <c r="G119" s="78" t="s">
-        <v>533</v>
-      </c>
-      <c r="H119" s="78" t="s">
+      <c r="J119" s="78" t="s">
+        <v>503</v>
+      </c>
+      <c r="K119" s="78" t="s">
         <v>504</v>
       </c>
-      <c r="I119" s="78" t="s">
-        <v>505</v>
-      </c>
-      <c r="J119" s="78" t="s">
-        <v>506</v>
-      </c>
-      <c r="K119" s="78" t="s">
-        <v>507</v>
-      </c>
       <c r="L119" s="86" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -19197,7 +19200,7 @@
         <v>1</v>
       </c>
       <c r="B120" s="71" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C120" s="71" t="s">
         <v>66</v>
@@ -19239,7 +19242,7 @@
         <v>2</v>
       </c>
       <c r="B121" s="266" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C121" s="71" t="s">
         <v>69</v>
@@ -19281,7 +19284,7 @@
         <v>3</v>
       </c>
       <c r="B122" s="266" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C122" s="71" t="s">
         <v>66</v>
@@ -19323,7 +19326,7 @@
         <v>4</v>
       </c>
       <c r="B123" s="266" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C123" s="71" t="s">
         <v>71</v>
@@ -19364,7 +19367,7 @@
         <v>5</v>
       </c>
       <c r="B124" s="266" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C124" s="71" t="s">
         <v>67</v>
@@ -19405,7 +19408,7 @@
         <v>6</v>
       </c>
       <c r="B125" s="266" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C125" s="71" t="s">
         <v>79</v>
@@ -19449,7 +19452,7 @@
         <v>7</v>
       </c>
       <c r="B126" s="266" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C126" s="71" t="s">
         <v>80</v>
@@ -19488,7 +19491,7 @@
         <v>3</v>
       </c>
       <c r="M126" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -19496,7 +19499,7 @@
         <v>8</v>
       </c>
       <c r="B127" s="266" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C127" s="71" t="s">
         <v>74</v>
@@ -19532,7 +19535,7 @@
         <v>2</v>
       </c>
       <c r="M127" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -19540,7 +19543,7 @@
         <v>9</v>
       </c>
       <c r="B128" s="266" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C128" s="71" t="s">
         <v>69</v>
@@ -19565,7 +19568,7 @@
         <v>10</v>
       </c>
       <c r="B129" s="266" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C129" s="71" t="s">
         <v>72</v>
@@ -19601,7 +19604,7 @@
         <v>3</v>
       </c>
       <c r="M129" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -19710,7 +19713,7 @@
       <c r="A138" s="551" t="s">
         <v>143</v>
       </c>
-      <c r="B138" s="446"/>
+      <c r="B138" s="477"/>
       <c r="C138" s="75">
         <f>SUM(L140:L155)</f>
         <v>33</v>
@@ -19720,40 +19723,40 @@
     </row>
     <row r="139" spans="1:13" ht="16.5" customHeight="1">
       <c r="A139" s="76" t="s">
+        <v>494</v>
+      </c>
+      <c r="B139" s="77" t="s">
+        <v>495</v>
+      </c>
+      <c r="C139" s="77" t="s">
+        <v>496</v>
+      </c>
+      <c r="D139" s="78" t="s">
         <v>497</v>
       </c>
-      <c r="B139" s="77" t="s">
+      <c r="E139" s="78" t="s">
         <v>498</v>
       </c>
-      <c r="C139" s="77" t="s">
+      <c r="F139" s="78" t="s">
         <v>499</v>
       </c>
-      <c r="D139" s="78" t="s">
+      <c r="G139" s="78" t="s">
         <v>500</v>
       </c>
-      <c r="E139" s="78" t="s">
+      <c r="H139" s="78" t="s">
         <v>501</v>
       </c>
-      <c r="F139" s="78" t="s">
+      <c r="I139" s="78" t="s">
         <v>502</v>
       </c>
-      <c r="G139" s="78" t="s">
+      <c r="J139" s="78" t="s">
         <v>503</v>
       </c>
-      <c r="H139" s="78" t="s">
+      <c r="K139" s="78" t="s">
         <v>504</v>
       </c>
-      <c r="I139" s="78" t="s">
-        <v>505</v>
-      </c>
-      <c r="J139" s="78" t="s">
-        <v>506</v>
-      </c>
-      <c r="K139" s="78" t="s">
-        <v>507</v>
-      </c>
       <c r="L139" s="86" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -19761,7 +19764,7 @@
         <v>1</v>
       </c>
       <c r="B140" s="71" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C140" s="71" t="s">
         <v>78</v>
@@ -19805,7 +19808,7 @@
         <v>2</v>
       </c>
       <c r="B141" s="266" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C141" s="71" t="s">
         <v>78</v>
@@ -19849,7 +19852,7 @@
         <v>3</v>
       </c>
       <c r="B142" s="266" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C142" s="71" t="s">
         <v>78</v>
@@ -19888,7 +19891,7 @@
         <v>2</v>
       </c>
       <c r="M142" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -19896,7 +19899,7 @@
         <v>4</v>
       </c>
       <c r="B143" s="266" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C143" s="71" t="s">
         <v>78</v>
@@ -19934,7 +19937,7 @@
         <v>2</v>
       </c>
       <c r="M143" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -19942,7 +19945,7 @@
         <v>5</v>
       </c>
       <c r="B144" s="266" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C144" s="71" t="s">
         <v>78</v>
@@ -19965,7 +19968,7 @@
         <v>6</v>
       </c>
       <c r="B145" s="266" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C145" s="71" t="s">
         <v>70</v>
@@ -19988,7 +19991,7 @@
         <v>7</v>
       </c>
       <c r="B146" s="266" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C146" s="71" t="s">
         <v>70</v>
@@ -20136,7 +20139,7 @@
       <c r="A157" s="551" t="s">
         <v>145</v>
       </c>
-      <c r="B157" s="446"/>
+      <c r="B157" s="477"/>
       <c r="C157" s="75">
         <f>SUM(L159:L174)</f>
         <v>16</v>
@@ -20146,40 +20149,40 @@
     </row>
     <row r="158" spans="1:13" ht="16.5" customHeight="1">
       <c r="A158" s="76" t="s">
+        <v>494</v>
+      </c>
+      <c r="B158" s="77" t="s">
+        <v>495</v>
+      </c>
+      <c r="C158" s="77" t="s">
+        <v>496</v>
+      </c>
+      <c r="D158" s="78" t="s">
         <v>497</v>
       </c>
-      <c r="B158" s="77" t="s">
+      <c r="E158" s="78" t="s">
         <v>498</v>
       </c>
-      <c r="C158" s="77" t="s">
+      <c r="F158" s="78" t="s">
         <v>499</v>
       </c>
-      <c r="D158" s="78" t="s">
+      <c r="G158" s="78" t="s">
         <v>500</v>
       </c>
-      <c r="E158" s="78" t="s">
+      <c r="H158" s="78" t="s">
         <v>501</v>
       </c>
-      <c r="F158" s="78" t="s">
+      <c r="I158" s="78" t="s">
         <v>502</v>
       </c>
-      <c r="G158" s="78" t="s">
+      <c r="J158" s="78" t="s">
         <v>503</v>
       </c>
-      <c r="H158" s="78" t="s">
+      <c r="K158" s="78" t="s">
         <v>504</v>
       </c>
-      <c r="I158" s="78" t="s">
-        <v>505</v>
-      </c>
-      <c r="J158" s="78" t="s">
-        <v>506</v>
-      </c>
-      <c r="K158" s="78" t="s">
-        <v>507</v>
-      </c>
       <c r="L158" s="86" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -20187,7 +20190,7 @@
         <v>1</v>
       </c>
       <c r="B159" s="71" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C159" s="71" t="s">
         <v>78</v>
@@ -20224,7 +20227,7 @@
         <v>8</v>
       </c>
       <c r="M159" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -20232,7 +20235,7 @@
         <v>2</v>
       </c>
       <c r="B160" s="266" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C160" s="71" t="s">
         <v>78</v>
@@ -20269,7 +20272,7 @@
         <v>2</v>
       </c>
       <c r="M160" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -20277,7 +20280,7 @@
         <v>3</v>
       </c>
       <c r="B161" s="266" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C161" s="71" t="s">
         <v>78</v>
@@ -20313,7 +20316,7 @@
         <v>4</v>
       </c>
       <c r="M161" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -20321,7 +20324,7 @@
         <v>4</v>
       </c>
       <c r="B162" s="266" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C162" s="71" t="s">
         <v>78</v>
@@ -20357,7 +20360,7 @@
         <v>2</v>
       </c>
       <c r="M162" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -20365,7 +20368,7 @@
         <v>5</v>
       </c>
       <c r="B163" s="266" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C163" s="71" t="s">
         <v>78</v>
@@ -20388,7 +20391,7 @@
         <v>6</v>
       </c>
       <c r="B164" s="266" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C164" s="71" t="s">
         <v>70</v>
@@ -20411,7 +20414,7 @@
         <v>7</v>
       </c>
       <c r="B165" s="266" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C165" s="71" t="s">
         <v>70</v>
@@ -20640,37 +20643,37 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="29" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="J2" s="22" t="s">
         <v>547</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -20687,14 +20690,14 @@
         <v>268.86400000000003</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H3" s="14">
         <f>VLOOKUP('Input-Output'!B9,Table1113[#All],3,FALSE)</f>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J3" s="14">
         <f>I8*'Input-Output'!B8*'Input-Output'!B6</f>
@@ -20725,7 +20728,7 @@
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="552" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F5" s="553"/>
       <c r="G5" s="553"/>
@@ -20744,7 +20747,7 @@
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="18" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F6" s="18">
         <f>VLOOKUP(E3,B4:C21,2,FALSE)</f>
@@ -20752,7 +20755,7 @@
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I6" s="18">
         <f>'Input-Output'!B12</f>
@@ -20771,7 +20774,7 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="18" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F7" s="318">
         <f>I6*I7/(I8*3600)</f>
@@ -20779,7 +20782,7 @@
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="I7" s="18">
         <f>'Input-Output'!B11</f>
@@ -20798,7 +20801,7 @@
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="19" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F8" s="421">
         <f>F7*F6</f>
@@ -20806,7 +20809,7 @@
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I8" s="18">
         <f>'Input-Output'!B10</f>
@@ -20979,7 +20982,7 @@
         <v>128</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -21125,7 +21128,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B1" s="2" t="str">
         <f>'Input-Output'!B9</f>
@@ -21134,19 +21137,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B2" s="1">
         <f>VLOOKUP(B1,Table11[[Part Material]:[Price/kg]],2,FALSE)</f>
         <v>210</v>
       </c>
       <c r="D2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B3" s="1">
         <f>((('Input-Output'!B7*'Input-Output'!B14)/1000)*VLOOKUP(B1,Table11[#All],4,FALSE))/1000</f>
@@ -21157,12 +21160,12 @@
         <v>1202.4742268041239</v>
       </c>
       <c r="E3" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B4" s="1">
         <f>B3*B2</f>
@@ -21171,7 +21174,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B5" s="1">
         <f>'Input-Output'!B10</f>
@@ -21180,7 +21183,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B6" s="1">
         <f>'Tonnage '!F6</f>
@@ -21189,7 +21192,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B7" s="1">
         <f>'Input-Output'!B12</f>
@@ -21198,7 +21201,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B8" s="1">
         <f>'Tonnage '!E3</f>
@@ -21207,7 +21210,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B9" s="1">
         <f>(3600/B7)*B5*0.9</f>
@@ -21216,7 +21219,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B10" s="3">
         <f>B6/B9</f>
@@ -21225,7 +21228,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B11" s="3">
         <f>B10+B4</f>
@@ -21234,7 +21237,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B12" s="3">
         <f>11%*B11</f>
@@ -21277,7 +21280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -21485,21 +21488,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.5" customHeight="1">
-      <c r="A1" s="508" t="s">
+      <c r="A1" s="506" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="446"/>
-      <c r="C1" s="446"/>
-      <c r="D1" s="446"/>
-      <c r="E1" s="446"/>
-      <c r="F1" s="446"/>
-      <c r="G1" s="446"/>
-      <c r="H1" s="446"/>
-      <c r="I1" s="446"/>
-      <c r="J1" s="446"/>
-      <c r="K1" s="446"/>
-      <c r="L1" s="446"/>
-      <c r="M1" s="446"/>
+      <c r="B1" s="477"/>
+      <c r="C1" s="477"/>
+      <c r="D1" s="477"/>
+      <c r="E1" s="477"/>
+      <c r="F1" s="477"/>
+      <c r="G1" s="477"/>
+      <c r="H1" s="477"/>
+      <c r="I1" s="477"/>
+      <c r="J1" s="477"/>
+      <c r="K1" s="477"/>
+      <c r="L1" s="477"/>
+      <c r="M1" s="477"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="24" t="s">
@@ -21538,21 +21541,21 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.5" customHeight="1">
-      <c r="A7" s="510" t="s">
+      <c r="A7" s="499" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="446"/>
-      <c r="C7" s="446"/>
-      <c r="D7" s="446"/>
-      <c r="E7" s="446"/>
-      <c r="F7" s="446"/>
-      <c r="G7" s="446"/>
-      <c r="H7" s="446"/>
-      <c r="I7" s="446"/>
-      <c r="J7" s="446"/>
-      <c r="K7" s="446"/>
-      <c r="L7" s="446"/>
-      <c r="M7" s="446"/>
+      <c r="B7" s="477"/>
+      <c r="C7" s="477"/>
+      <c r="D7" s="477"/>
+      <c r="E7" s="477"/>
+      <c r="F7" s="477"/>
+      <c r="G7" s="477"/>
+      <c r="H7" s="477"/>
+      <c r="I7" s="477"/>
+      <c r="J7" s="477"/>
+      <c r="K7" s="477"/>
+      <c r="L7" s="477"/>
+      <c r="M7" s="477"/>
     </row>
     <row r="8" spans="1:13" ht="58" customHeight="1">
       <c r="A8" s="25" t="s">
@@ -22466,24 +22469,24 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="505" t="s">
+      <c r="A41" s="509" t="s">
         <v>157</v>
       </c>
-      <c r="B41" s="435"/>
-      <c r="C41" s="435"/>
-      <c r="D41" s="435"/>
-      <c r="E41" s="423"/>
-      <c r="F41" s="505" t="s">
+      <c r="B41" s="429"/>
+      <c r="C41" s="429"/>
+      <c r="D41" s="429"/>
+      <c r="E41" s="430"/>
+      <c r="F41" s="509" t="s">
         <v>158</v>
       </c>
-      <c r="G41" s="423"/>
+      <c r="G41" s="430"/>
       <c r="H41" s="360" t="s">
         <v>126</v>
       </c>
-      <c r="I41" s="506" t="s">
+      <c r="I41" s="510" t="s">
         <v>159</v>
       </c>
-      <c r="J41" s="423"/>
+      <c r="J41" s="430"/>
       <c r="K41" s="58" t="s">
         <v>160</v>
       </c>
@@ -22493,18 +22496,18 @@
         <v>161</v>
       </c>
       <c r="B42" s="42"/>
-      <c r="C42" s="499"/>
-      <c r="D42" s="435"/>
-      <c r="E42" s="423"/>
-      <c r="F42" s="501"/>
-      <c r="G42" s="423"/>
+      <c r="C42" s="505"/>
+      <c r="D42" s="429"/>
+      <c r="E42" s="430"/>
+      <c r="F42" s="500"/>
+      <c r="G42" s="430"/>
       <c r="H42" s="356">
         <v>1</v>
       </c>
-      <c r="I42" s="502">
+      <c r="I42" s="501">
         <v>6000</v>
       </c>
-      <c r="J42" s="423"/>
+      <c r="J42" s="430"/>
       <c r="K42" s="356">
         <f t="shared" ref="K42:K49" si="0">I42*H42</f>
         <v>6000</v>
@@ -22515,20 +22518,20 @@
         <v>162</v>
       </c>
       <c r="B43" s="42"/>
-      <c r="C43" s="499" t="s">
+      <c r="C43" s="505" t="s">
         <v>163</v>
       </c>
-      <c r="D43" s="435"/>
-      <c r="E43" s="423"/>
-      <c r="F43" s="501"/>
-      <c r="G43" s="423"/>
+      <c r="D43" s="429"/>
+      <c r="E43" s="430"/>
+      <c r="F43" s="500"/>
+      <c r="G43" s="430"/>
       <c r="H43" s="356">
         <v>8</v>
       </c>
-      <c r="I43" s="502">
+      <c r="I43" s="501">
         <v>50</v>
       </c>
-      <c r="J43" s="423"/>
+      <c r="J43" s="430"/>
       <c r="K43" s="356">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -22539,20 +22542,20 @@
         <v>164</v>
       </c>
       <c r="B44" s="42"/>
-      <c r="C44" s="499" t="s">
+      <c r="C44" s="505" t="s">
         <v>163</v>
       </c>
-      <c r="D44" s="435"/>
-      <c r="E44" s="423"/>
-      <c r="F44" s="501"/>
-      <c r="G44" s="423"/>
+      <c r="D44" s="429"/>
+      <c r="E44" s="430"/>
+      <c r="F44" s="500"/>
+      <c r="G44" s="430"/>
       <c r="H44" s="356">
         <v>6</v>
       </c>
-      <c r="I44" s="502">
+      <c r="I44" s="501">
         <v>50</v>
       </c>
-      <c r="J44" s="423"/>
+      <c r="J44" s="430"/>
       <c r="K44" s="356">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -22563,18 +22566,18 @@
         <v>165</v>
       </c>
       <c r="B45" s="323"/>
-      <c r="C45" s="501"/>
-      <c r="D45" s="435"/>
-      <c r="E45" s="423"/>
-      <c r="F45" s="501"/>
-      <c r="G45" s="423"/>
+      <c r="C45" s="500"/>
+      <c r="D45" s="429"/>
+      <c r="E45" s="430"/>
+      <c r="F45" s="500"/>
+      <c r="G45" s="430"/>
       <c r="H45" s="356">
         <v>6</v>
       </c>
-      <c r="I45" s="502">
+      <c r="I45" s="501">
         <v>500</v>
       </c>
-      <c r="J45" s="423"/>
+      <c r="J45" s="430"/>
       <c r="K45" s="356">
         <f t="shared" si="0"/>
         <v>3000</v>
@@ -22585,18 +22588,18 @@
         <v>166</v>
       </c>
       <c r="B46" s="323"/>
-      <c r="C46" s="501"/>
-      <c r="D46" s="435"/>
-      <c r="E46" s="423"/>
-      <c r="F46" s="501"/>
-      <c r="G46" s="423"/>
+      <c r="C46" s="500"/>
+      <c r="D46" s="429"/>
+      <c r="E46" s="430"/>
+      <c r="F46" s="500"/>
+      <c r="G46" s="430"/>
       <c r="H46" s="356">
         <v>6</v>
       </c>
-      <c r="I46" s="502">
+      <c r="I46" s="501">
         <v>600</v>
       </c>
-      <c r="J46" s="423"/>
+      <c r="J46" s="430"/>
       <c r="K46" s="356">
         <f t="shared" si="0"/>
         <v>3600</v>
@@ -22607,18 +22610,18 @@
         <v>167</v>
       </c>
       <c r="B47" s="42"/>
-      <c r="C47" s="501"/>
-      <c r="D47" s="435"/>
-      <c r="E47" s="423"/>
-      <c r="F47" s="501"/>
-      <c r="G47" s="423"/>
+      <c r="C47" s="500"/>
+      <c r="D47" s="429"/>
+      <c r="E47" s="430"/>
+      <c r="F47" s="500"/>
+      <c r="G47" s="430"/>
       <c r="H47" s="356">
         <v>4</v>
       </c>
-      <c r="I47" s="502">
+      <c r="I47" s="501">
         <v>150</v>
       </c>
-      <c r="J47" s="423"/>
+      <c r="J47" s="430"/>
       <c r="K47" s="356">
         <f t="shared" si="0"/>
         <v>600</v>
@@ -22629,18 +22632,18 @@
         <v>168</v>
       </c>
       <c r="B48" s="42"/>
-      <c r="C48" s="499"/>
-      <c r="D48" s="435"/>
-      <c r="E48" s="423"/>
-      <c r="F48" s="501"/>
-      <c r="G48" s="423"/>
+      <c r="C48" s="505"/>
+      <c r="D48" s="429"/>
+      <c r="E48" s="430"/>
+      <c r="F48" s="500"/>
+      <c r="G48" s="430"/>
       <c r="H48" s="356">
         <v>6</v>
       </c>
-      <c r="I48" s="502">
+      <c r="I48" s="501">
         <v>200</v>
       </c>
-      <c r="J48" s="423"/>
+      <c r="J48" s="430"/>
       <c r="K48" s="356">
         <f t="shared" si="0"/>
         <v>1200</v>
@@ -22651,29 +22654,29 @@
         <v>169</v>
       </c>
       <c r="B49" s="42"/>
-      <c r="C49" s="499"/>
-      <c r="D49" s="435"/>
-      <c r="E49" s="423"/>
-      <c r="F49" s="501"/>
-      <c r="G49" s="423"/>
+      <c r="C49" s="505"/>
+      <c r="D49" s="429"/>
+      <c r="E49" s="430"/>
+      <c r="F49" s="500"/>
+      <c r="G49" s="430"/>
       <c r="H49" s="356"/>
-      <c r="I49" s="502"/>
-      <c r="J49" s="423"/>
+      <c r="I49" s="501"/>
+      <c r="J49" s="430"/>
       <c r="K49" s="356">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="509"/>
-      <c r="B50" s="478"/>
-      <c r="C50" s="478"/>
-      <c r="D50" s="478"/>
-      <c r="E50" s="478"/>
-      <c r="F50" s="478"/>
-      <c r="G50" s="478"/>
-      <c r="H50" s="478"/>
-      <c r="I50" s="478"/>
+      <c r="A50" s="507"/>
+      <c r="B50" s="423"/>
+      <c r="C50" s="423"/>
+      <c r="D50" s="423"/>
+      <c r="E50" s="423"/>
+      <c r="F50" s="423"/>
+      <c r="G50" s="423"/>
+      <c r="H50" s="423"/>
+      <c r="I50" s="423"/>
       <c r="J50" t="s">
         <v>170</v>
       </c>
@@ -22683,15 +22686,15 @@
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="449"/>
-      <c r="B51" s="449"/>
-      <c r="C51" s="449"/>
-      <c r="D51" s="449"/>
-      <c r="E51" s="449"/>
-      <c r="F51" s="449"/>
-      <c r="G51" s="449"/>
-      <c r="H51" s="449"/>
-      <c r="I51" s="449"/>
+      <c r="A51" s="480"/>
+      <c r="B51" s="480"/>
+      <c r="C51" s="480"/>
+      <c r="D51" s="480"/>
+      <c r="E51" s="480"/>
+      <c r="F51" s="480"/>
+      <c r="G51" s="480"/>
+      <c r="H51" s="480"/>
+      <c r="I51" s="480"/>
       <c r="J51" s="56" t="s">
         <v>171</v>
       </c>
@@ -22701,36 +22704,36 @@
       </c>
     </row>
     <row r="52" spans="1:14" ht="18.5" customHeight="1">
-      <c r="A52" s="511" t="s">
+      <c r="A52" s="503" t="s">
         <v>172</v>
       </c>
-      <c r="B52" s="435"/>
-      <c r="C52" s="435"/>
-      <c r="D52" s="435"/>
-      <c r="E52" s="435"/>
-      <c r="F52" s="435"/>
-      <c r="G52" s="435"/>
-      <c r="H52" s="435"/>
-      <c r="I52" s="435"/>
-      <c r="J52" s="435"/>
-      <c r="K52" s="423"/>
+      <c r="B52" s="429"/>
+      <c r="C52" s="429"/>
+      <c r="D52" s="429"/>
+      <c r="E52" s="429"/>
+      <c r="F52" s="429"/>
+      <c r="G52" s="429"/>
+      <c r="H52" s="429"/>
+      <c r="I52" s="429"/>
+      <c r="J52" s="429"/>
+      <c r="K52" s="430"/>
       <c r="N52">
         <f>IF('Input-Output'!B5&lt;20000,20000,IF('Input-Output'!B5&lt;40000,40000,IF('Input-Output'!B5&lt;60000,60000,80000)))</f>
         <v>80000</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="29" customHeight="1">
-      <c r="A53" s="512" t="s">
+      <c r="A53" s="504" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="435"/>
-      <c r="C53" s="435"/>
-      <c r="D53" s="435"/>
-      <c r="E53" s="423"/>
-      <c r="F53" s="515" t="s">
+      <c r="B53" s="429"/>
+      <c r="C53" s="429"/>
+      <c r="D53" s="429"/>
+      <c r="E53" s="430"/>
+      <c r="F53" s="508" t="s">
         <v>173</v>
       </c>
-      <c r="G53" s="423"/>
+      <c r="G53" s="430"/>
       <c r="H53" s="325"/>
       <c r="I53" s="359" t="s">
         <v>174</v>
@@ -22750,17 +22753,17 @@
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="499" t="s">
+      <c r="A54" s="505" t="s">
         <v>178</v>
       </c>
-      <c r="B54" s="435"/>
-      <c r="C54" s="435"/>
-      <c r="D54" s="435"/>
-      <c r="E54" s="423"/>
-      <c r="F54" s="501" t="s">
+      <c r="B54" s="429"/>
+      <c r="C54" s="429"/>
+      <c r="D54" s="429"/>
+      <c r="E54" s="430"/>
+      <c r="F54" s="500" t="s">
         <v>179</v>
       </c>
-      <c r="G54" s="423"/>
+      <c r="G54" s="430"/>
       <c r="H54" s="324"/>
       <c r="I54" s="356">
         <f>50*VLOOKUP('INJ. MOULDING ESTIMATION'!C16,COMPLEXITY!A1:B7,2,TRUE)</f>
@@ -22781,17 +22784,17 @@
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="499" t="s">
+      <c r="A55" s="505" t="s">
         <v>180</v>
       </c>
-      <c r="B55" s="435"/>
-      <c r="C55" s="435"/>
-      <c r="D55" s="435"/>
-      <c r="E55" s="423"/>
-      <c r="F55" s="501" t="s">
+      <c r="B55" s="429"/>
+      <c r="C55" s="429"/>
+      <c r="D55" s="429"/>
+      <c r="E55" s="430"/>
+      <c r="F55" s="500" t="s">
         <v>179</v>
       </c>
-      <c r="G55" s="423"/>
+      <c r="G55" s="430"/>
       <c r="H55" s="324"/>
       <c r="I55" s="356">
         <f>30*VLOOKUP('INJ. MOULDING ESTIMATION'!C16,COMPLEXITY!A1:B7,2,TRUE)</f>
@@ -22812,17 +22815,17 @@
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="499" t="s">
+      <c r="A56" s="505" t="s">
         <v>181</v>
       </c>
-      <c r="B56" s="435"/>
-      <c r="C56" s="435"/>
-      <c r="D56" s="435"/>
-      <c r="E56" s="423"/>
-      <c r="F56" s="501" t="s">
+      <c r="B56" s="429"/>
+      <c r="C56" s="429"/>
+      <c r="D56" s="429"/>
+      <c r="E56" s="430"/>
+      <c r="F56" s="500" t="s">
         <v>179</v>
       </c>
-      <c r="G56" s="423"/>
+      <c r="G56" s="430"/>
       <c r="H56" s="324" t="b">
         <v>1</v>
       </c>
@@ -22845,17 +22848,17 @@
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="499" t="s">
+      <c r="A57" s="505" t="s">
         <v>182</v>
       </c>
-      <c r="B57" s="435"/>
-      <c r="C57" s="435"/>
-      <c r="D57" s="435"/>
-      <c r="E57" s="423"/>
-      <c r="F57" s="501" t="s">
+      <c r="B57" s="429"/>
+      <c r="C57" s="429"/>
+      <c r="D57" s="429"/>
+      <c r="E57" s="430"/>
+      <c r="F57" s="500" t="s">
         <v>179</v>
       </c>
-      <c r="G57" s="423"/>
+      <c r="G57" s="430"/>
       <c r="H57" s="324"/>
       <c r="I57" s="356">
         <f>1*VLOOKUP('INJ. MOULDING ESTIMATION'!C16,COMPLEXITY!A2:B7,2,TRUE)</f>
@@ -22876,17 +22879,17 @@
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="499" t="s">
+      <c r="A58" s="505" t="s">
         <v>183</v>
       </c>
-      <c r="B58" s="435"/>
-      <c r="C58" s="435"/>
-      <c r="D58" s="435"/>
-      <c r="E58" s="423"/>
-      <c r="F58" s="501" t="s">
+      <c r="B58" s="429"/>
+      <c r="C58" s="429"/>
+      <c r="D58" s="429"/>
+      <c r="E58" s="430"/>
+      <c r="F58" s="500" t="s">
         <v>179</v>
       </c>
-      <c r="G58" s="423"/>
+      <c r="G58" s="430"/>
       <c r="H58" s="324"/>
       <c r="I58" s="356">
         <f>20*VLOOKUP('INJ. MOULDING ESTIMATION'!C16,COMPLEXITY!A1:B7,2,TRUE)</f>
@@ -22901,17 +22904,17 @@
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="499" t="s">
+      <c r="A59" s="505" t="s">
         <v>184</v>
       </c>
-      <c r="B59" s="435"/>
-      <c r="C59" s="435"/>
-      <c r="D59" s="435"/>
-      <c r="E59" s="423"/>
-      <c r="F59" s="501" t="s">
+      <c r="B59" s="429"/>
+      <c r="C59" s="429"/>
+      <c r="D59" s="429"/>
+      <c r="E59" s="430"/>
+      <c r="F59" s="500" t="s">
         <v>179</v>
       </c>
-      <c r="G59" s="423"/>
+      <c r="G59" s="430"/>
       <c r="H59" s="324"/>
       <c r="I59" s="319">
         <f>50*VLOOKUP('INJ. MOULDING ESTIMATION'!C16,COMPLEXITY!A2:B7,2,TRUE)</f>
@@ -22938,32 +22941,32 @@
       <c r="C63" s="514" t="s">
         <v>186</v>
       </c>
-      <c r="D63" s="435"/>
-      <c r="E63" s="423"/>
+      <c r="D63" s="429"/>
+      <c r="E63" s="430"/>
       <c r="F63" s="48">
         <f>SUM(M22+K50+K60)</f>
         <v>525580.83579495468</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="18.5" customHeight="1">
-      <c r="A65" s="511" t="s">
+      <c r="A65" s="503" t="s">
         <v>187</v>
       </c>
-      <c r="B65" s="435"/>
-      <c r="C65" s="435"/>
-      <c r="D65" s="435"/>
-      <c r="E65" s="435"/>
-      <c r="F65" s="435"/>
-      <c r="G65" s="435"/>
-      <c r="H65" s="435"/>
-      <c r="I65" s="435"/>
-      <c r="J65" s="435"/>
-      <c r="K65" s="435"/>
-      <c r="L65" s="435"/>
-      <c r="M65" s="435"/>
-      <c r="N65" s="435"/>
-      <c r="O65" s="435"/>
-      <c r="P65" s="423"/>
+      <c r="B65" s="429"/>
+      <c r="C65" s="429"/>
+      <c r="D65" s="429"/>
+      <c r="E65" s="429"/>
+      <c r="F65" s="429"/>
+      <c r="G65" s="429"/>
+      <c r="H65" s="429"/>
+      <c r="I65" s="429"/>
+      <c r="J65" s="429"/>
+      <c r="K65" s="429"/>
+      <c r="L65" s="429"/>
+      <c r="M65" s="429"/>
+      <c r="N65" s="429"/>
+      <c r="O65" s="429"/>
+      <c r="P65" s="430"/>
     </row>
     <row r="66" spans="1:18" ht="43.5" customHeight="1">
       <c r="B66" s="359" t="s">
@@ -23926,18 +23929,18 @@
       </c>
     </row>
     <row r="86" spans="1:17" ht="30" customHeight="1">
-      <c r="A86" s="503" t="s">
+      <c r="A86" s="512" t="s">
         <v>119</v>
       </c>
-      <c r="B86" s="435"/>
-      <c r="C86" s="435"/>
-      <c r="D86" s="435"/>
-      <c r="E86" s="435"/>
-      <c r="F86" s="423"/>
-      <c r="G86" s="500" t="s">
+      <c r="B86" s="429"/>
+      <c r="C86" s="429"/>
+      <c r="D86" s="429"/>
+      <c r="E86" s="429"/>
+      <c r="F86" s="430"/>
+      <c r="G86" s="515" t="s">
         <v>191</v>
       </c>
-      <c r="H86" s="423"/>
+      <c r="H86" s="430"/>
       <c r="I86" s="64" t="s">
         <v>192</v>
       </c>
@@ -23949,16 +23952,16 @@
       </c>
     </row>
     <row r="87" spans="1:17">
-      <c r="A87" s="513" t="s">
+      <c r="A87" s="511" t="s">
         <v>194</v>
       </c>
-      <c r="B87" s="435"/>
-      <c r="C87" s="435"/>
-      <c r="D87" s="435"/>
-      <c r="E87" s="435"/>
-      <c r="F87" s="423"/>
-      <c r="G87" s="507"/>
-      <c r="H87" s="423"/>
+      <c r="B87" s="429"/>
+      <c r="C87" s="429"/>
+      <c r="D87" s="429"/>
+      <c r="E87" s="429"/>
+      <c r="F87" s="430"/>
+      <c r="G87" s="502"/>
+      <c r="H87" s="430"/>
       <c r="I87" s="265">
         <f>72*VLOOKUP('INJ. MOULDING ESTIMATION'!C16,COMPLEXITY!A1:B7,2,TRUE)</f>
         <v>103.65430576883615</v>
@@ -23972,16 +23975,16 @@
       </c>
     </row>
     <row r="88" spans="1:17">
-      <c r="A88" s="513" t="s">
+      <c r="A88" s="511" t="s">
         <v>195</v>
       </c>
-      <c r="B88" s="435"/>
-      <c r="C88" s="435"/>
-      <c r="D88" s="435"/>
-      <c r="E88" s="435"/>
-      <c r="F88" s="423"/>
-      <c r="G88" s="507"/>
-      <c r="H88" s="423"/>
+      <c r="B88" s="429"/>
+      <c r="C88" s="429"/>
+      <c r="D88" s="429"/>
+      <c r="E88" s="429"/>
+      <c r="F88" s="430"/>
+      <c r="G88" s="502"/>
+      <c r="H88" s="430"/>
       <c r="I88" s="265">
         <f>60*VLOOKUP('INJ. MOULDING ESTIMATION'!C16,COMPLEXITY!A1:B7,2,TRUE)</f>
         <v>86.378588140696792</v>
@@ -24029,13 +24032,13 @@
       <c r="B93" s="498" t="s">
         <v>199</v>
       </c>
-      <c r="C93" s="435"/>
-      <c r="D93" s="435"/>
-      <c r="E93" s="435"/>
-      <c r="F93" s="435"/>
-      <c r="G93" s="435"/>
-      <c r="H93" s="435"/>
-      <c r="I93" s="435"/>
+      <c r="C93" s="429"/>
+      <c r="D93" s="429"/>
+      <c r="E93" s="429"/>
+      <c r="F93" s="429"/>
+      <c r="G93" s="429"/>
+      <c r="H93" s="429"/>
+      <c r="I93" s="429"/>
       <c r="J93" s="41"/>
       <c r="K93" s="70" t="b">
         <v>0</v>
@@ -24050,13 +24053,13 @@
       <c r="B94" s="498" t="s">
         <v>201</v>
       </c>
-      <c r="C94" s="435"/>
-      <c r="D94" s="435"/>
-      <c r="E94" s="435"/>
-      <c r="F94" s="435"/>
-      <c r="G94" s="435"/>
-      <c r="H94" s="435"/>
-      <c r="I94" s="435"/>
+      <c r="C94" s="429"/>
+      <c r="D94" s="429"/>
+      <c r="E94" s="429"/>
+      <c r="F94" s="429"/>
+      <c r="G94" s="429"/>
+      <c r="H94" s="429"/>
+      <c r="I94" s="429"/>
       <c r="J94" s="41"/>
       <c r="K94" s="322"/>
       <c r="L94" s="68">
@@ -24072,13 +24075,13 @@
       <c r="B95" s="498" t="s">
         <v>203</v>
       </c>
-      <c r="C95" s="435"/>
-      <c r="D95" s="435"/>
-      <c r="E95" s="435"/>
-      <c r="F95" s="435"/>
-      <c r="G95" s="435"/>
-      <c r="H95" s="435"/>
-      <c r="I95" s="435"/>
+      <c r="C95" s="429"/>
+      <c r="D95" s="429"/>
+      <c r="E95" s="429"/>
+      <c r="F95" s="429"/>
+      <c r="G95" s="429"/>
+      <c r="H95" s="429"/>
+      <c r="I95" s="429"/>
       <c r="J95" s="41"/>
       <c r="K95" s="69">
         <f>'INJ. MOULDING ESTIMATION'!A35</f>
@@ -24094,16 +24097,16 @@
       <c r="A96" s="356" t="s">
         <v>204</v>
       </c>
-      <c r="B96" s="504" t="s">
+      <c r="B96" s="513" t="s">
         <v>87</v>
       </c>
-      <c r="C96" s="435"/>
-      <c r="D96" s="435"/>
-      <c r="E96" s="435"/>
-      <c r="F96" s="435"/>
-      <c r="G96" s="435"/>
-      <c r="H96" s="435"/>
-      <c r="I96" s="435"/>
+      <c r="C96" s="429"/>
+      <c r="D96" s="429"/>
+      <c r="E96" s="429"/>
+      <c r="F96" s="429"/>
+      <c r="G96" s="429"/>
+      <c r="H96" s="429"/>
+      <c r="I96" s="429"/>
       <c r="J96" s="41">
         <v>5000</v>
       </c>
@@ -24123,13 +24126,13 @@
       <c r="B97" s="498" t="s">
         <v>206</v>
       </c>
-      <c r="C97" s="435"/>
-      <c r="D97" s="435"/>
-      <c r="E97" s="435"/>
-      <c r="F97" s="435"/>
-      <c r="G97" s="435"/>
-      <c r="H97" s="435"/>
-      <c r="I97" s="435"/>
+      <c r="C97" s="429"/>
+      <c r="D97" s="429"/>
+      <c r="E97" s="429"/>
+      <c r="F97" s="429"/>
+      <c r="G97" s="429"/>
+      <c r="H97" s="429"/>
+      <c r="I97" s="429"/>
       <c r="J97" s="41"/>
       <c r="K97" s="72" t="b">
         <v>1</v>
@@ -24147,13 +24150,13 @@
       <c r="B98" s="498" t="s">
         <v>208</v>
       </c>
-      <c r="C98" s="435"/>
-      <c r="D98" s="435"/>
-      <c r="E98" s="435"/>
-      <c r="F98" s="435"/>
-      <c r="G98" s="435"/>
-      <c r="H98" s="435"/>
-      <c r="I98" s="435"/>
+      <c r="C98" s="429"/>
+      <c r="D98" s="429"/>
+      <c r="E98" s="429"/>
+      <c r="F98" s="429"/>
+      <c r="G98" s="429"/>
+      <c r="H98" s="429"/>
+      <c r="I98" s="429"/>
       <c r="J98" s="41"/>
       <c r="K98" s="72" t="b">
         <v>1</v>
@@ -24174,13 +24177,13 @@
       <c r="B99" s="498" t="s">
         <v>211</v>
       </c>
-      <c r="C99" s="435"/>
-      <c r="D99" s="435"/>
-      <c r="E99" s="435"/>
-      <c r="F99" s="435"/>
-      <c r="G99" s="435"/>
-      <c r="H99" s="435"/>
-      <c r="I99" s="435"/>
+      <c r="C99" s="429"/>
+      <c r="D99" s="429"/>
+      <c r="E99" s="429"/>
+      <c r="F99" s="429"/>
+      <c r="G99" s="429"/>
+      <c r="H99" s="429"/>
+      <c r="I99" s="429"/>
       <c r="J99" s="41" t="b">
         <v>0</v>
       </c>
@@ -24215,6 +24218,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="B97:I97"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="B98:I98"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B94:I94"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="B93:I93"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A50:I51"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C48:E48"/>
     <mergeCell ref="B99:I99"/>
     <mergeCell ref="A7:M7"/>
     <mergeCell ref="F56:G56"/>
@@ -24231,50 +24278,6 @@
     <mergeCell ref="B95:I95"/>
     <mergeCell ref="F49:G49"/>
     <mergeCell ref="A52:K52"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A50:I51"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="B98:I98"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B94:I94"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="B93:I93"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="B96:I96"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="B97:I97"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I45:J45"/>
   </mergeCells>
   <conditionalFormatting sqref="B34">
     <cfRule type="expression" dxfId="158" priority="3">
@@ -24468,7 +24471,7 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <f t="dataTable" ref="J2:J14" dt2D="0" dtr="0" r1="G2" ca="1"/>
+        <f t="dataTable" ref="J2:J14" dt2D="0" dtr="0" r1="G2"/>
         <v>1448438.6</v>
       </c>
     </row>
@@ -24787,7 +24790,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="257">
-        <f t="dataTable" ref="H17:H21" dt2D="0" dtr="0" r1="C14"/>
+        <f t="dataTable" ref="H17:H21" dt2D="0" dtr="0" r1="C14" ca="1"/>
         <v>87.813600587284455</v>
       </c>
     </row>
@@ -24867,7 +24870,7 @@
         <v>0.5</v>
       </c>
       <c r="M21">
-        <f t="dataTable" ref="M21:M26" dt2D="0" dtr="0" r1="K21"/>
+        <f t="dataTable" ref="M21:M26" dt2D="0" dtr="0" r1="K21" ca="1"/>
         <v>2.1192761225023222</v>
       </c>
     </row>
@@ -24908,7 +24911,7 @@
         <f>'Mould Costing'!E10</f>
         <v>607.43502458835189</v>
       </c>
-      <c r="E23" s="438"/>
+      <c r="E23" s="492"/>
       <c r="L23">
         <v>2</v>
       </c>
@@ -25189,8 +25192,8 @@
   </sheetPr>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -25209,7 +25212,7 @@
     <row r="1" spans="1:12">
       <c r="A1" s="225"/>
       <c r="B1" s="522"/>
-      <c r="C1" s="446"/>
+      <c r="C1" s="477"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" customHeight="1">
       <c r="A2" t="s">
@@ -25221,29 +25224,29 @@
       <c r="C2" t="s">
         <v>274</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="555" t="s">
         <v>275</v>
       </c>
       <c r="E2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F2" t="s">
+        <v>566</v>
+      </c>
+      <c r="G2" t="s">
+        <v>567</v>
+      </c>
+      <c r="I2" s="169" t="s">
         <v>276</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" s="170" t="s">
         <v>277</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" s="354" t="s">
         <v>278</v>
       </c>
-      <c r="I2" s="169" t="s">
+      <c r="L2" t="s">
         <v>279</v>
-      </c>
-      <c r="J2" s="170" t="s">
-        <v>280</v>
-      </c>
-      <c r="K2" s="354" t="s">
-        <v>281</v>
-      </c>
-      <c r="L2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="186" customFormat="1" ht="27.5" customHeight="1">
@@ -25254,20 +25257,14 @@
         <v>7.8</v>
       </c>
       <c r="C3" s="165" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D3" s="166">
-        <f>Table1[[#This Row],[Total]]</f>
         <v>128</v>
       </c>
-      <c r="E3" s="167">
-        <v>128</v>
-      </c>
+      <c r="E3" s="167"/>
       <c r="F3" s="167"/>
-      <c r="G3" s="167">
-        <f>Table1[[#This Row],[RM cost]]+Table1[[#This Row],[Extra cost]]</f>
-        <v>128</v>
-      </c>
+      <c r="G3" s="167"/>
       <c r="I3" s="171" t="s">
         <v>66</v>
       </c>
@@ -25286,22 +25283,14 @@
         <v>7.85</v>
       </c>
       <c r="C4" s="165" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D4" s="5">
-        <f>Table1[[#This Row],[Total]]</f>
         <v>255</v>
       </c>
-      <c r="E4" s="167">
-        <v>120</v>
-      </c>
-      <c r="F4" s="167">
-        <v>135</v>
-      </c>
-      <c r="G4" s="167">
-        <f>Table1[[#This Row],[RM cost]]+Table1[[#This Row],[Extra cost]]</f>
-        <v>255</v>
-      </c>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
       <c r="I4" s="171" t="s">
         <v>67</v>
       </c>
@@ -25320,20 +25309,14 @@
         <v>7.8</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D5" s="5">
-        <f>Table1[[#This Row],[Total]]</f>
         <v>150</v>
       </c>
-      <c r="E5" s="167">
-        <v>150</v>
-      </c>
+      <c r="E5" s="167"/>
       <c r="F5" s="167"/>
-      <c r="G5" s="167">
-        <f>Table1[[#This Row],[RM cost]]+Table1[[#This Row],[Extra cost]]</f>
-        <v>150</v>
-      </c>
+      <c r="G5" s="167"/>
       <c r="I5" s="171" t="s">
         <v>68</v>
       </c>
@@ -25352,20 +25335,14 @@
         <v>8.67</v>
       </c>
       <c r="C6" s="165" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D6" s="5">
-        <f>Table1[[#This Row],[Total]]</f>
         <v>125</v>
       </c>
-      <c r="E6" s="167">
-        <v>125</v>
-      </c>
+      <c r="E6" s="167"/>
       <c r="F6" s="167"/>
-      <c r="G6" s="167">
-        <f>Table1[[#This Row],[RM cost]]+Table1[[#This Row],[Extra cost]]</f>
-        <v>125</v>
-      </c>
+      <c r="G6" s="167"/>
       <c r="I6" s="171" t="s">
         <v>69</v>
       </c>
@@ -25384,20 +25361,14 @@
         <v>7.7</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D7" s="5">
-        <f>Table1[[#This Row],[Total]]</f>
         <v>200</v>
       </c>
-      <c r="E7" s="167">
-        <v>200</v>
-      </c>
+      <c r="E7" s="167"/>
       <c r="F7" s="167"/>
-      <c r="G7" s="167">
-        <f>Table1[[#This Row],[RM cost]]+Table1[[#This Row],[Extra cost]]</f>
-        <v>200</v>
-      </c>
+      <c r="G7" s="167"/>
       <c r="I7" s="171" t="s">
         <v>70</v>
       </c>
@@ -25416,20 +25387,14 @@
         <v>7.8</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D8" s="5">
-        <f>Table1[[#This Row],[Total]]</f>
         <v>590</v>
       </c>
-      <c r="E8" s="167">
-        <v>590</v>
-      </c>
+      <c r="E8" s="167"/>
       <c r="F8" s="167"/>
-      <c r="G8" s="167">
-        <f>Table1[[#This Row],[RM cost]]+Table1[[#This Row],[Extra cost]]</f>
-        <v>590</v>
-      </c>
+      <c r="G8" s="167"/>
       <c r="I8" s="171" t="s">
         <v>71</v>
       </c>
@@ -25448,20 +25413,14 @@
         <v>8.16</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D9" s="5">
-        <f>Table1[[#This Row],[Total]]</f>
         <v>950</v>
       </c>
-      <c r="E9" s="167">
-        <v>950</v>
-      </c>
+      <c r="E9" s="167"/>
       <c r="F9" s="167"/>
-      <c r="G9" s="167">
-        <f>Table1[[#This Row],[RM cost]]+Table1[[#This Row],[Extra cost]]</f>
-        <v>950</v>
-      </c>
+      <c r="G9" s="167"/>
       <c r="I9" s="171" t="s">
         <v>72</v>
       </c>
@@ -25480,20 +25439,14 @@
         <v>7.3</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D10" s="5">
-        <f>Table1[[#This Row],[Total]]</f>
         <v>100</v>
       </c>
-      <c r="E10" s="167">
-        <v>100</v>
-      </c>
+      <c r="E10" s="167"/>
       <c r="F10" s="167"/>
-      <c r="G10" s="167">
-        <f>Table1[[#This Row],[RM cost]]+Table1[[#This Row],[Extra cost]]</f>
-        <v>100</v>
-      </c>
+      <c r="G10" s="167"/>
       <c r="I10" s="171" t="s">
         <v>73</v>
       </c>
@@ -25512,19 +25465,14 @@
         <v>7.8609999999999998</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D11" s="5">
-        <f>Table1[[#This Row],[Total]]</f>
         <v>230</v>
       </c>
-      <c r="E11" s="167">
-        <v>230</v>
-      </c>
+      <c r="E11" s="167"/>
       <c r="F11" s="167"/>
-      <c r="G11" s="167">
-        <v>230</v>
-      </c>
+      <c r="G11" s="167"/>
       <c r="I11" s="171" t="s">
         <v>74</v>
       </c>
@@ -25537,26 +25485,20 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="63" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B12" s="63">
         <v>7.8</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D12" s="5">
-        <f>Table1[[#This Row],[Total]]</f>
         <v>985</v>
       </c>
-      <c r="E12" s="167">
-        <v>985</v>
-      </c>
+      <c r="E12" s="167"/>
       <c r="F12" s="167"/>
-      <c r="G12" s="167">
-        <f>Table1[[#This Row],[RM cost]]+Table1[[#This Row],[Extra cost]]</f>
-        <v>985</v>
-      </c>
+      <c r="G12" s="167"/>
       <c r="I12" s="171" t="s">
         <v>75</v>
       </c>
@@ -25569,24 +25511,18 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="63" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B13" s="63"/>
       <c r="C13" s="63" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D13" s="5">
-        <f>Table1[[#This Row],[Total]]</f>
         <v>200</v>
       </c>
-      <c r="E13" s="167">
-        <v>200</v>
-      </c>
+      <c r="E13" s="167"/>
       <c r="F13" s="167"/>
-      <c r="G13" s="167">
-        <f>Table1[[#This Row],[RM cost]]+Table1[[#This Row],[Extra cost]]</f>
-        <v>200</v>
-      </c>
+      <c r="G13" s="167"/>
       <c r="I13" s="171" t="s">
         <v>76</v>
       </c>
@@ -25599,24 +25535,18 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="63" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B14" s="63"/>
       <c r="C14" s="63" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D14" s="5">
-        <f>Table1[[#This Row],[Total]]</f>
         <v>120</v>
       </c>
-      <c r="E14" s="167">
-        <v>120</v>
-      </c>
+      <c r="E14" s="167"/>
       <c r="F14" s="167"/>
-      <c r="G14" s="167">
-        <f>Table1[[#This Row],[RM cost]]+Table1[[#This Row],[Extra cost]]</f>
-        <v>120</v>
-      </c>
+      <c r="G14" s="167"/>
       <c r="I14" s="171" t="s">
         <v>77</v>
       </c>
@@ -25629,24 +25559,18 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="63" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B15" s="63"/>
       <c r="C15" s="63" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D15" s="5">
-        <f>Table1[[#This Row],[Total]]</f>
         <v>500</v>
       </c>
-      <c r="E15" s="167">
-        <v>500</v>
-      </c>
+      <c r="E15" s="167"/>
       <c r="F15" s="167"/>
-      <c r="G15" s="167">
-        <f>Table1[[#This Row],[RM cost]]+Table1[[#This Row],[Extra cost]]</f>
-        <v>500</v>
-      </c>
+      <c r="G15" s="167"/>
       <c r="I15" s="171" t="s">
         <v>78</v>
       </c>
@@ -25665,17 +25589,14 @@
         <v>1.5</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D16" s="5">
-        <f>Table1[[#This Row],[Total]]</f>
         <v>1500</v>
       </c>
       <c r="E16" s="168"/>
       <c r="F16" s="168"/>
-      <c r="G16" s="168">
-        <v>1500</v>
-      </c>
+      <c r="G16" s="168"/>
       <c r="I16" s="171" t="s">
         <v>79</v>
       </c>
@@ -25711,18 +25632,18 @@
         <v>128</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="21" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B20" s="149">
         <v>136</v>
@@ -25739,7 +25660,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="21" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B21" s="149">
         <v>161</v>
@@ -25757,7 +25678,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="21" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B22" s="149">
         <v>139</v>
@@ -25793,7 +25714,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="21" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B24" s="149">
         <v>481</v>
@@ -25811,7 +25732,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="21" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B25" s="149">
         <v>300</v>
@@ -25829,7 +25750,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="21" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B26" s="149">
         <v>220</v>
@@ -25846,7 +25767,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="21" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B27" s="149">
         <v>257</v>
@@ -25900,18 +25821,18 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="364" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B1" s="364" t="s">
         <v>114</v>
       </c>
       <c r="C1" s="364" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E1" s="523" t="s">
-        <v>312</v>
-      </c>
-      <c r="F1" s="461"/>
+        <v>309</v>
+      </c>
+      <c r="F1" s="453"/>
     </row>
     <row r="2" spans="1:8" ht="14.5" customHeight="1">
       <c r="A2" s="21" t="s">
@@ -25924,8 +25845,8 @@
       <c r="C2" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="E2" s="448"/>
-      <c r="F2" s="450"/>
+      <c r="E2" s="479"/>
+      <c r="F2" s="442"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="21" t="s">
@@ -25958,7 +25879,7 @@
         <v>223</v>
       </c>
       <c r="E4" s="150" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F4" s="109">
         <f>VLOOKUP(F6,E12:G16,3,FALSE)+50</f>
@@ -25967,17 +25888,17 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="21" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B5" s="149">
         <f>B2*B3*B4</f>
         <v>2267200</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E5" s="150" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F5" s="109">
         <f>VLOOKUP($F$6,$E$12:$H$16,4,FALSE)</f>
@@ -25986,7 +25907,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="21" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B6" s="149">
         <f>'INJ. MOULDING ESTIMATION'!C17/100</f>
@@ -25994,7 +25915,7 @@
       </c>
       <c r="C6" s="21"/>
       <c r="E6" s="150" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F6" s="111">
         <f>B10</f>
@@ -26003,17 +25924,17 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="21" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B7" s="149">
         <f>B6*B2*B3</f>
         <v>27904</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E7" s="150" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F7" s="111">
         <v>50</v>
@@ -26021,7 +25942,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="314" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B8">
         <f>2*((B2*B3)/2+B3*B4+B2*B4)</f>
@@ -26033,7 +25954,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="21" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B9" s="149" t="str">
         <f>'INJ. MOULDING ESTIMATION'!C12</f>
@@ -26041,7 +25962,7 @@
       </c>
       <c r="C9" s="21"/>
       <c r="E9" s="150" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F9" s="151">
         <f>F3*F4*F5</f>
@@ -26050,7 +25971,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="21" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B10" s="152">
         <f>'INJ. MOULDING ESTIMATION'!C14</f>
@@ -26060,7 +25981,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="21" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B11" s="149">
         <f>'INJ. MOULDING ESTIMATION'!C20</f>
@@ -26068,7 +25989,7 @@
       </c>
       <c r="C11" s="21"/>
       <c r="E11" s="153" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F11" s="154" t="s">
         <v>115</v>
@@ -26082,14 +26003,14 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="21" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B12" s="155">
         <f>'No of Cavity'!B6</f>
         <v>19.399999999999999</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E12" s="154">
         <v>1</v>
@@ -26161,7 +26082,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B15" s="149">
         <f>'INJ. MOULDING ESTIMATION'!C11</f>
@@ -26188,7 +26109,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="21" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B16" s="157">
         <f>'INJ. MOULDING ESTIMATION'!C19</f>
@@ -26213,17 +26134,17 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="286" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B17" s="149"/>
       <c r="C17" s="21"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="158" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B18" s="159" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D18">
         <f>B23</f>
@@ -26235,7 +26156,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="337" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B19" s="51">
         <f>'Mould Costing'!L100</f>
@@ -26249,7 +26170,7 @@
         <v>250</v>
       </c>
       <c r="G19" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I19">
         <f>0.9*8</f>
@@ -26258,7 +26179,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="337" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B20" s="87">
         <f>'Part Cost'!B15</f>
@@ -26269,10 +26190,10 @@
         <v>87813.600587284454</v>
       </c>
       <c r="E20" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G20" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I20">
         <f>B12/3600</f>
@@ -26292,10 +26213,10 @@
         <v>1336.0824742268044</v>
       </c>
       <c r="E21" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G21" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I21">
         <f>I19/I20</f>
@@ -26310,10 +26231,10 @@
         <v>26721.649484536087</v>
       </c>
       <c r="E22" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G22" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I22">
         <f>10%*I21</f>
@@ -26322,26 +26243,26 @@
     </row>
     <row r="23" spans="1:10" ht="23.5" customHeight="1">
       <c r="A23" s="160" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B23" s="161">
         <f>SUM(B19,B20)</f>
         <v>1756272.011745689</v>
       </c>
       <c r="G23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="I23">
         <f>I21-I22</f>
         <v>1202.4742268041239</v>
       </c>
       <c r="J23" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="G24" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="I24">
         <f>I23*B10*'No of Cavity'!B10</f>
@@ -26354,14 +26275,14 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="162" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B28" s="163">
         <f>B21/B16</f>
         <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F28">
         <f>5%*D25</f>
@@ -26372,7 +26293,7 @@
       <c r="A29" s="162"/>
       <c r="B29" s="163"/>
       <c r="E29" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F29">
         <f>F28*B21</f>
@@ -26383,7 +26304,7 @@
       <c r="A30" s="162"/>
       <c r="B30" s="163"/>
       <c r="E30" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F30">
         <f>F29/B28</f>
@@ -26440,26 +26361,26 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20.149999999999999" customHeight="1">
       <c r="A1" s="527" t="s">
-        <v>351</v>
-      </c>
-      <c r="B1" s="435"/>
-      <c r="C1" s="423"/>
+        <v>348</v>
+      </c>
+      <c r="B1" s="429"/>
+      <c r="C1" s="430"/>
       <c r="E1" s="132" t="s">
         <v>244</v>
       </c>
-      <c r="G1" s="501" t="s">
-        <v>352</v>
-      </c>
-      <c r="H1" s="435"/>
-      <c r="I1" s="423"/>
+      <c r="G1" s="500" t="s">
+        <v>349</v>
+      </c>
+      <c r="H1" s="429"/>
+      <c r="I1" s="430"/>
       <c r="J1" s="266" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="21" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A2" s="362"/>
       <c r="B2" s="362" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C2" s="362" t="s">
         <v>220</v>
@@ -26468,33 +26389,33 @@
         <v>1</v>
       </c>
       <c r="G2" s="524" t="s">
-        <v>355</v>
-      </c>
-      <c r="H2" s="435"/>
-      <c r="I2" s="423"/>
+        <v>352</v>
+      </c>
+      <c r="H2" s="429"/>
+      <c r="I2" s="430"/>
       <c r="J2" s="148">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="20.149999999999999" customHeight="1">
       <c r="A3" s="266" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B3" s="134">
         <f>'Input-Output'!B16</f>
         <v>1000</v>
       </c>
       <c r="C3" s="110" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E3" s="133">
         <v>2</v>
       </c>
       <c r="G3" s="524" t="s">
-        <v>358</v>
-      </c>
-      <c r="H3" s="435"/>
-      <c r="I3" s="423"/>
+        <v>355</v>
+      </c>
+      <c r="H3" s="429"/>
+      <c r="I3" s="430"/>
       <c r="J3" s="71">
         <f>INDEX(F11:K19,MATCH('Input-Output'!B9,E11:E19,1),MATCH('Input-Output'!B14,F10:K10,1))*1.2</f>
         <v>8.4</v>
@@ -26502,7 +26423,7 @@
     </row>
     <row r="4" spans="1:11" ht="20.149999999999999" customHeight="1">
       <c r="A4" s="266" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B4" s="135">
         <v>0.9</v>
@@ -26512,17 +26433,17 @@
         <v>4</v>
       </c>
       <c r="G4" s="524" t="s">
-        <v>360</v>
-      </c>
-      <c r="H4" s="435"/>
-      <c r="I4" s="423"/>
+        <v>357</v>
+      </c>
+      <c r="H4" s="429"/>
+      <c r="I4" s="430"/>
       <c r="J4" s="266">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="20.149999999999999" customHeight="1">
       <c r="A5" s="266" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B5" s="135">
         <v>0.02</v>
@@ -26532,33 +26453,33 @@
         <v>6</v>
       </c>
       <c r="G5" s="524" t="s">
-        <v>362</v>
-      </c>
-      <c r="H5" s="435"/>
-      <c r="I5" s="423"/>
+        <v>359</v>
+      </c>
+      <c r="H5" s="429"/>
+      <c r="I5" s="430"/>
       <c r="J5" s="266">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="20.149999999999999" customHeight="1">
       <c r="A6" s="266" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B6" s="136">
         <f>J6</f>
         <v>19.399999999999999</v>
       </c>
       <c r="C6" s="110" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E6" s="133">
         <v>8</v>
       </c>
       <c r="G6" s="528" t="s">
-        <v>365</v>
-      </c>
-      <c r="H6" s="435"/>
-      <c r="I6" s="423"/>
+        <v>362</v>
+      </c>
+      <c r="H6" s="429"/>
+      <c r="I6" s="430"/>
       <c r="J6" s="5">
         <f>SUM(J2:J5)</f>
         <v>19.399999999999999</v>
@@ -26566,17 +26487,17 @@
     </row>
     <row r="7" spans="1:11" ht="20.149999999999999" customHeight="1">
       <c r="A7" s="266" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B7" s="137">
         <f>B6/3600</f>
         <v>5.3888888888888884E-3</v>
       </c>
       <c r="C7" s="110" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G7" s="63" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H7">
         <f>ROUNDUP('Input-Output'!B14,0)</f>
@@ -26585,28 +26506,28 @@
     </row>
     <row r="8" spans="1:11" ht="20.149999999999999" customHeight="1">
       <c r="A8" s="266" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B8" s="136">
         <f>0.9*8</f>
         <v>7.2</v>
       </c>
       <c r="C8" s="110" t="s">
+        <v>363</v>
+      </c>
+      <c r="E8" s="526" t="s">
         <v>366</v>
       </c>
-      <c r="E8" s="526" t="s">
-        <v>369</v>
-      </c>
-      <c r="F8" s="435"/>
-      <c r="G8" s="435"/>
-      <c r="H8" s="435"/>
-      <c r="I8" s="435"/>
-      <c r="J8" s="435"/>
-      <c r="K8" s="423"/>
+      <c r="F8" s="429"/>
+      <c r="G8" s="429"/>
+      <c r="H8" s="429"/>
+      <c r="I8" s="429"/>
+      <c r="J8" s="429"/>
+      <c r="K8" s="430"/>
     </row>
     <row r="9" spans="1:11" ht="20.149999999999999" customHeight="1">
       <c r="A9" s="266" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B9" s="136">
         <v>1</v>
@@ -26616,7 +26537,7 @@
         <v>120</v>
       </c>
       <c r="F9" s="339" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G9" s="339" t="s">
         <v>223</v>
@@ -26643,7 +26564,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="110"/>
-      <c r="E10" s="427"/>
+      <c r="E10" s="484"/>
       <c r="F10" s="361">
         <v>1</v>
       </c>
@@ -26665,7 +26586,7 @@
     </row>
     <row r="11" spans="1:11" ht="20.149999999999999" customHeight="1">
       <c r="A11" s="266" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B11" s="138">
         <f>B3/B4</f>
@@ -26696,7 +26617,7 @@
     </row>
     <row r="12" spans="1:11" ht="20.149999999999999" customHeight="1">
       <c r="A12" s="266" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B12" s="138">
         <f>B11+(B11*B5)</f>
@@ -26704,7 +26625,7 @@
       </c>
       <c r="C12" s="110"/>
       <c r="E12" s="139" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F12" s="140">
         <v>1.3</v>
@@ -26727,7 +26648,7 @@
     </row>
     <row r="13" spans="1:11" ht="20.149999999999999" customHeight="1">
       <c r="A13" s="266" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B13" s="136">
         <f>ROUNDUP(B12,0)</f>
@@ -26735,7 +26656,7 @@
       </c>
       <c r="C13" s="110"/>
       <c r="E13" s="139" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F13" s="140">
         <v>3.2</v>
@@ -26758,17 +26679,17 @@
     </row>
     <row r="14" spans="1:11" ht="20.149999999999999" customHeight="1">
       <c r="A14" s="266" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B14" s="137">
         <f>B7*B13</f>
         <v>6.1109999999999998</v>
       </c>
       <c r="C14" s="110" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E14" s="139" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F14" s="140">
         <v>1.6</v>
@@ -26791,17 +26712,17 @@
     </row>
     <row r="15" spans="1:11" ht="20.149999999999999" customHeight="1">
       <c r="A15" s="266" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B15" s="120">
         <f>B10*B9*B8</f>
         <v>7.2</v>
       </c>
       <c r="C15" s="110" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E15" s="139" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F15" s="140">
         <v>2.1</v>
@@ -26824,7 +26745,7 @@
     </row>
     <row r="16" spans="1:11" ht="20.149999999999999" customHeight="1">
       <c r="A16" s="266" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B16" s="137">
         <f>B14/B15</f>
@@ -26832,7 +26753,7 @@
       </c>
       <c r="C16" s="110"/>
       <c r="E16" s="139" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F16" s="140">
         <v>1.9</v>
@@ -26855,7 +26776,7 @@
     </row>
     <row r="17" spans="1:11" ht="20.149999999999999" customHeight="1">
       <c r="A17" s="266" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B17" s="141">
         <f>IF(B16&lt;1,1,IF(B16&lt;2,2,IF(B16&lt;4,4,IF(B16&lt;6,6,IF(B16&gt;6,8)))))</f>
@@ -26863,7 +26784,7 @@
       </c>
       <c r="C17" s="142"/>
       <c r="E17" s="139" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F17" s="140">
         <v>2.5</v>
@@ -26886,7 +26807,7 @@
     </row>
     <row r="18" spans="1:11" ht="20.149999999999999" customHeight="1">
       <c r="A18" s="80" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B18" s="143">
         <f>IF('Input-Output'!B2&lt;100,8,IF('Input-Output'!B2&lt;300,6,IF('Input-Output'!B2&lt;400,4,IF('Input-Output'!B2&lt;500,2,IF('Input-Output'!B2&gt;=500,1)))))</f>
@@ -26894,7 +26815,7 @@
       </c>
       <c r="C18" s="110"/>
       <c r="E18" s="139" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F18" s="417">
         <v>1.925</v>
@@ -26925,7 +26846,7 @@
       </c>
       <c r="C19" s="110"/>
       <c r="E19" s="139" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F19" s="417">
         <v>2.0406249999999999</v>
@@ -26951,27 +26872,27 @@
         <v>115</v>
       </c>
       <c r="B21" s="145" t="s">
+        <v>378</v>
+      </c>
+      <c r="C21" s="145" t="s">
+        <v>379</v>
+      </c>
+      <c r="D21" s="145" t="s">
+        <v>380</v>
+      </c>
+      <c r="E21" s="145" t="s">
         <v>381</v>
       </c>
-      <c r="C21" s="145" t="s">
+      <c r="F21" s="145" t="s">
         <v>382</v>
-      </c>
-      <c r="D21" s="145" t="s">
-        <v>383</v>
-      </c>
-      <c r="E21" s="145" t="s">
-        <v>384</v>
-      </c>
-      <c r="F21" s="145" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="20.149999999999999" customHeight="1">
       <c r="A22" s="145" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B22" s="145" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C22" s="145"/>
       <c r="D22" s="145"/>
@@ -27097,7 +27018,7 @@
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="112" priority="2">
+    <cfRule type="expression" dxfId="113" priority="2">
       <formula>$B$16&gt;$B$18</formula>
     </cfRule>
   </conditionalFormatting>
